--- a/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>1.000016338396526</v>
       </c>
       <c r="D3">
-        <v>0.9999346473816181</v>
+        <v>0.9999640576297208</v>
       </c>
       <c r="E3">
-        <v>1.000016338396526</v>
+        <v>1.000043567909944</v>
       </c>
       <c r="F3">
         <v>1.000016338396526</v>
       </c>
       <c r="G3">
-        <v>1.000043567909944</v>
+        <v>0.9999346473816181</v>
       </c>
       <c r="H3">
-        <v>0.9999640576297211</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="I3">
+        <v>0.9999346473816181</v>
+      </c>
+      <c r="J3">
         <v>1.000016338396526</v>
-      </c>
-      <c r="J3">
-        <v>0.9999346473816181</v>
       </c>
       <c r="K3">
         <v>1.000016338396526</v>
@@ -710,7 +662,7 @@
         <v>0.9999754928890721</v>
       </c>
       <c r="O3">
-        <v>0.9999716811359551</v>
+        <v>0.999971681135955</v>
       </c>
       <c r="P3">
         <v>0.9999891080582234</v>
@@ -728,7 +680,7 @@
         <v>0.999998548018477</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,25 +691,25 @@
         <v>1.000031539742068</v>
       </c>
       <c r="D4">
-        <v>0.9998738379158184</v>
+        <v>0.9999306125977502</v>
       </c>
       <c r="E4">
-        <v>1.000031539742068</v>
+        <v>1.000084107185589</v>
       </c>
       <c r="F4">
         <v>1.000031539742068</v>
       </c>
       <c r="G4">
-        <v>1.000084107185589</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="H4">
-        <v>0.9999306125977502</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="I4">
+        <v>0.9998738379158184</v>
+      </c>
+      <c r="J4">
         <v>1.000031539742068</v>
-      </c>
-      <c r="J4">
-        <v>0.9998738379158184</v>
       </c>
       <c r="K4">
         <v>1.000031539742068</v>
@@ -790,7 +742,7 @@
         <v>0.999997196154227</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,25 +753,25 @@
         <v>1.000060441175615</v>
       </c>
       <c r="D5">
-        <v>0.9997582249966338</v>
+        <v>0.9998670266168441</v>
       </c>
       <c r="E5">
-        <v>1.000060441175615</v>
+        <v>1.000161184662702</v>
       </c>
       <c r="F5">
         <v>1.000060441175615</v>
       </c>
       <c r="G5">
-        <v>1.000161184662702</v>
+        <v>0.9997582249966338</v>
       </c>
       <c r="H5">
-        <v>0.9998670266168441</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="I5">
+        <v>0.9997582249966338</v>
+      </c>
+      <c r="J5">
         <v>1.000060441175615</v>
-      </c>
-      <c r="J5">
-        <v>0.9997582249966338</v>
       </c>
       <c r="K5">
         <v>1.000060441175615</v>
@@ -852,7 +804,7 @@
         <v>0.9999946266338376</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,25 +815,25 @@
         <v>1.00008864396666</v>
       </c>
       <c r="D6">
-        <v>0.9996454002629926</v>
+        <v>0.9998049717797023</v>
       </c>
       <c r="E6">
-        <v>1.00008864396666</v>
+        <v>1.000236398302213</v>
       </c>
       <c r="F6">
         <v>1.00008864396666</v>
       </c>
       <c r="G6">
-        <v>1.000236398302213</v>
+        <v>0.9996454002629926</v>
       </c>
       <c r="H6">
-        <v>0.9998049717797023</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="I6">
+        <v>0.9996454002629926</v>
+      </c>
+      <c r="J6">
         <v>1.00008864396666</v>
-      </c>
-      <c r="J6">
-        <v>0.9996454002629926</v>
       </c>
       <c r="K6">
         <v>1.00008864396666</v>
@@ -914,7 +866,7 @@
         <v>0.9999921170408146</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +877,25 @@
         <v>1.000001281691743</v>
       </c>
       <c r="D7">
-        <v>0.9999948771579318</v>
+        <v>0.9999971839206597</v>
       </c>
       <c r="E7">
-        <v>1.000001281691743</v>
+        <v>1.000003414213624</v>
       </c>
       <c r="F7">
         <v>1.000001281691743</v>
       </c>
       <c r="G7">
-        <v>1.000003414213624</v>
+        <v>0.9999948771579318</v>
       </c>
       <c r="H7">
-        <v>0.9999971839206595</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="I7">
+        <v>0.9999948771579318</v>
+      </c>
+      <c r="J7">
         <v>1.000001281691743</v>
-      </c>
-      <c r="J7">
-        <v>0.9999948771579318</v>
       </c>
       <c r="K7">
         <v>1.000001281691743</v>
@@ -976,7 +928,7 @@
         <v>0.9999998867279074</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000002899690642</v>
       </c>
       <c r="D8">
-        <v>0.9999884049616453</v>
+        <v>0.9999936241919529</v>
       </c>
       <c r="E8">
-        <v>1.000002899690642</v>
+        <v>1.00000772897914</v>
       </c>
       <c r="F8">
         <v>1.000002899690642</v>
       </c>
       <c r="G8">
-        <v>1.00000772897914</v>
+        <v>0.9999884049616453</v>
       </c>
       <c r="H8">
-        <v>0.9999936241919529</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="I8">
+        <v>0.9999884049616453</v>
+      </c>
+      <c r="J8">
         <v>1.000002899690642</v>
-      </c>
-      <c r="J8">
-        <v>0.9999884049616453</v>
       </c>
       <c r="K8">
         <v>1.000002899690642</v>
@@ -1038,7 +990,7 @@
         <v>0.9999997428674442</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>1.000004960130395</v>
       </c>
       <c r="D9">
-        <v>0.9999801647846362</v>
+        <v>0.9999890924653462</v>
       </c>
       <c r="E9">
-        <v>1.000004960130395</v>
+        <v>1.000013221860407</v>
       </c>
       <c r="F9">
         <v>1.000004960130395</v>
       </c>
       <c r="G9">
-        <v>1.000013221860407</v>
+        <v>0.9999801647846362</v>
       </c>
       <c r="H9">
-        <v>0.9999890924653464</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="I9">
+        <v>0.9999801647846362</v>
+      </c>
+      <c r="J9">
         <v>1.000004960130395</v>
-      </c>
-      <c r="J9">
-        <v>0.9999801647846362</v>
       </c>
       <c r="K9">
         <v>1.000004960130395</v>
@@ -1100,7 +1052,7 @@
         <v>0.999999559916929</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>1.000009950724764</v>
       </c>
       <c r="D10">
-        <v>0.99996020007389</v>
+        <v>0.9999781122502857</v>
       </c>
       <c r="E10">
-        <v>1.000009950724764</v>
+        <v>1.000026532059463</v>
       </c>
       <c r="F10">
         <v>1.000009950724764</v>
       </c>
       <c r="G10">
-        <v>1.000026532059462</v>
+        <v>0.99996020007389</v>
       </c>
       <c r="H10">
-        <v>0.9999781122502857</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="I10">
+        <v>0.99996020007389</v>
+      </c>
+      <c r="J10">
         <v>1.000009950724764</v>
-      </c>
-      <c r="J10">
-        <v>0.99996020007389</v>
       </c>
       <c r="K10">
         <v>1.000009950724764</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999991160929881</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.000017947384466</v>
       </c>
       <c r="D11">
-        <v>0.9999282168972887</v>
+        <v>0.9999605203613787</v>
       </c>
       <c r="E11">
-        <v>1.000017947384466</v>
+        <v>1.000047852440248</v>
       </c>
       <c r="F11">
         <v>1.000017947384466</v>
       </c>
       <c r="G11">
-        <v>1.000047852440248</v>
+        <v>0.9999282168972887</v>
       </c>
       <c r="H11">
-        <v>0.9999605203613787</v>
+        <v>1.000017947384466</v>
       </c>
       <c r="I11">
+        <v>0.9999282168972887</v>
+      </c>
+      <c r="J11">
         <v>1.000017947384466</v>
-      </c>
-      <c r="J11">
-        <v>0.9999282168972887</v>
       </c>
       <c r="K11">
         <v>1.000017947384466</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999984053087188</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>1.000028097300705</v>
       </c>
       <c r="D12">
-        <v>0.9998876122407555</v>
+        <v>0.999938188232406</v>
       </c>
       <c r="E12">
-        <v>1.000028097300705</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="F12">
         <v>1.000028097300705</v>
       </c>
       <c r="G12">
-        <v>1.000074918695383</v>
+        <v>0.9998876122407555</v>
       </c>
       <c r="H12">
-        <v>0.999938188232406</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="I12">
+        <v>0.9998876122407555</v>
+      </c>
+      <c r="J12">
         <v>1.000028097300705</v>
-      </c>
-      <c r="J12">
-        <v>0.9998876122407555</v>
       </c>
       <c r="K12">
         <v>1.000028097300705</v>
@@ -1286,7 +1238,7 @@
         <v>0.9999975018451099</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>1.000007626290974</v>
       </c>
       <c r="D13">
-        <v>0.999969510855254</v>
+        <v>0.9999832304387672</v>
       </c>
       <c r="E13">
-        <v>1.000007626290974</v>
+        <v>1.000020322947069</v>
       </c>
       <c r="F13">
         <v>1.000007626290974</v>
       </c>
       <c r="G13">
-        <v>1.000020322947069</v>
+        <v>0.999969510855254</v>
       </c>
       <c r="H13">
-        <v>0.9999832304387672</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="I13">
+        <v>0.999969510855254</v>
+      </c>
+      <c r="J13">
         <v>1.000007626290974</v>
-      </c>
-      <c r="J13">
-        <v>0.999969510855254</v>
       </c>
       <c r="K13">
         <v>1.000007626290974</v>
@@ -1348,7 +1300,7 @@
         <v>0.999999323852335</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,25 +1311,25 @@
         <v>1.002089797253162</v>
       </c>
       <c r="D14">
-        <v>0.9916408172691078</v>
+        <v>0.9954024506878769</v>
       </c>
       <c r="E14">
-        <v>1.002089797253162</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="F14">
         <v>1.002089797253162</v>
       </c>
       <c r="G14">
-        <v>1.005572790015801</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="H14">
-        <v>0.9954024506878769</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="I14">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="J14">
         <v>1.002089797253162</v>
-      </c>
-      <c r="J14">
-        <v>0.9916408172691078</v>
       </c>
       <c r="K14">
         <v>1.002089797253162</v>
@@ -1410,7 +1362,7 @@
         <v>0.9998142416220452</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>1.000561146984666</v>
       </c>
       <c r="D15">
-        <v>0.9977554399469895</v>
+        <v>0.9987654929139987</v>
       </c>
       <c r="E15">
-        <v>1.000561146984666</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="F15">
         <v>1.000561146984666</v>
       </c>
       <c r="G15">
-        <v>1.001496364492529</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="H15">
-        <v>0.9987654929139987</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="I15">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="J15">
         <v>1.000561146984666</v>
-      </c>
-      <c r="J15">
-        <v>0.9977554399469895</v>
       </c>
       <c r="K15">
         <v>1.000561146984666</v>
@@ -1472,7 +1424,7 @@
         <v>0.9999501230512525</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000068748989</v>
+        <v>1.000318708767534</v>
       </c>
       <c r="D16">
-        <v>0.9999997290767715</v>
+        <v>0.9992988290654526</v>
       </c>
       <c r="E16">
-        <v>1.000000068748989</v>
+        <v>1.000849909411802</v>
       </c>
       <c r="F16">
-        <v>1.000000068748989</v>
+        <v>1.000318708767534</v>
       </c>
       <c r="G16">
-        <v>1.000000179676352</v>
+        <v>0.9987251366199655</v>
       </c>
       <c r="H16">
-        <v>0.9999998524974475</v>
+        <v>1.000318708767534</v>
       </c>
       <c r="I16">
-        <v>1.000000068748989</v>
+        <v>0.9987251366199655</v>
       </c>
       <c r="J16">
-        <v>0.9999997290767715</v>
+        <v>1.000318708767534</v>
       </c>
       <c r="K16">
-        <v>1.000000068748989</v>
+        <v>1.000318708767534</v>
       </c>
       <c r="L16">
-        <v>1.000000068748989</v>
+        <v>1.000318708767534</v>
       </c>
       <c r="M16">
-        <v>0.9999998989128803</v>
+        <v>0.9995219226937497</v>
       </c>
       <c r="N16">
-        <v>0.9999998989128803</v>
+        <v>0.9995219226937497</v>
       </c>
       <c r="O16">
-        <v>0.9999998834410694</v>
+        <v>0.9994475581509841</v>
       </c>
       <c r="P16">
-        <v>0.9999999555249165</v>
+        <v>0.9997875180516779</v>
       </c>
       <c r="Q16">
-        <v>0.9999999555249165</v>
+        <v>0.9997875180516779</v>
       </c>
       <c r="R16">
-        <v>0.9999999838309347</v>
+        <v>0.9999203157306418</v>
       </c>
       <c r="S16">
-        <v>0.9999999838309347</v>
+        <v>0.9999203157306418</v>
       </c>
       <c r="T16">
-        <v>0.9999999945829231</v>
+        <v>0.9999716668999703</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00000142974139</v>
+        <v>1.000260972917643</v>
       </c>
       <c r="D17">
-        <v>0.999994283592983</v>
+        <v>0.9994258526412551</v>
       </c>
       <c r="E17">
-        <v>1.00000142974139</v>
+        <v>1.000695939983929</v>
       </c>
       <c r="F17">
-        <v>1.00000142974139</v>
+        <v>1.000260972917643</v>
       </c>
       <c r="G17">
-        <v>1.000003810067097</v>
+        <v>0.9989560899721304</v>
       </c>
       <c r="H17">
-        <v>0.9999968575015091</v>
+        <v>1.000260972917643</v>
       </c>
       <c r="I17">
-        <v>1.00000142974139</v>
+        <v>0.9989560899721304</v>
       </c>
       <c r="J17">
-        <v>0.999994283592983</v>
+        <v>1.000260972917643</v>
       </c>
       <c r="K17">
-        <v>1.00000142974139</v>
+        <v>1.000260972917643</v>
       </c>
       <c r="L17">
-        <v>1.00000142974139</v>
+        <v>1.000260972917643</v>
       </c>
       <c r="M17">
-        <v>0.9999978566671865</v>
+        <v>0.9996085314448868</v>
       </c>
       <c r="N17">
-        <v>0.9999978566671865</v>
+        <v>0.9996085314448868</v>
       </c>
       <c r="O17">
-        <v>0.9999975236119608</v>
+        <v>0.9995476385103429</v>
       </c>
       <c r="P17">
-        <v>0.9999990476919211</v>
+        <v>0.9998260119358057</v>
       </c>
       <c r="Q17">
-        <v>0.9999990476919211</v>
+        <v>0.9998260119358057</v>
       </c>
       <c r="R17">
-        <v>0.9999996432042884</v>
+        <v>0.999934752181265</v>
       </c>
       <c r="S17">
-        <v>0.9999996432042884</v>
+        <v>0.999934752181265</v>
       </c>
       <c r="T17">
-        <v>0.9999998733976266</v>
+        <v>0.9999768002250407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000005027433818</v>
+        <v>1.000145233265121</v>
       </c>
       <c r="D18">
-        <v>0.9999798803156478</v>
+        <v>0.9996804886355188</v>
       </c>
       <c r="E18">
-        <v>1.000005027433818</v>
+        <v>1.000387289748782</v>
       </c>
       <c r="F18">
-        <v>1.000005027433818</v>
+        <v>1.000145233265121</v>
       </c>
       <c r="G18">
-        <v>1.000013414743481</v>
+        <v>0.9994190665781356</v>
       </c>
       <c r="H18">
-        <v>0.9999889348666909</v>
+        <v>1.000145233265121</v>
       </c>
       <c r="I18">
-        <v>1.000005027433818</v>
+        <v>0.9994190665781356</v>
       </c>
       <c r="J18">
-        <v>0.9999798803156478</v>
+        <v>1.000145233265121</v>
       </c>
       <c r="K18">
-        <v>1.000005027433818</v>
+        <v>1.000145233265121</v>
       </c>
       <c r="L18">
-        <v>1.000005027433818</v>
+        <v>1.000145233265121</v>
       </c>
       <c r="M18">
-        <v>0.9999924538747331</v>
+        <v>0.9997821499216282</v>
       </c>
       <c r="N18">
-        <v>0.9999924538747331</v>
+        <v>0.9997821499216282</v>
       </c>
       <c r="O18">
-        <v>0.9999912808720524</v>
+        <v>0.9997482628262584</v>
       </c>
       <c r="P18">
-        <v>0.999996645061095</v>
+        <v>0.9999031777027924</v>
       </c>
       <c r="Q18">
-        <v>0.999996645061095</v>
+        <v>0.9999031777027924</v>
       </c>
       <c r="R18">
-        <v>0.9999987406542759</v>
+        <v>0.9999636915933745</v>
       </c>
       <c r="S18">
-        <v>0.9999987406542759</v>
+        <v>0.9999636915933745</v>
       </c>
       <c r="T18">
-        <v>0.9999995520378793</v>
+        <v>0.9999870907929664</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="D19">
+        <v>0.9996713865245302</v>
+      </c>
+      <c r="E19">
+        <v>1.000398322385714</v>
+      </c>
+      <c r="F19">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="G19">
+        <v>0.999402519203732</v>
+      </c>
+      <c r="H19">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="I19">
+        <v>0.999402519203732</v>
+      </c>
+      <c r="J19">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="K19">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="L19">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="M19">
+        <v>0.999775943987667</v>
+      </c>
+      <c r="N19">
+        <v>0.999775943987667</v>
+      </c>
+      <c r="O19">
+        <v>0.9997410914999548</v>
+      </c>
+      <c r="P19">
+        <v>0.9999004189156452</v>
+      </c>
+      <c r="Q19">
+        <v>0.9999004189156452</v>
+      </c>
+      <c r="R19">
+        <v>0.9999626563796344</v>
+      </c>
+      <c r="S19">
+        <v>0.9999626563796344</v>
+      </c>
+      <c r="T19">
+        <v>0.999986722404797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="D20">
+        <v>0.9999998524974475</v>
+      </c>
+      <c r="E20">
+        <v>1.000000179676352</v>
+      </c>
+      <c r="F20">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="G20">
+        <v>0.9999997290767715</v>
+      </c>
+      <c r="H20">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="I20">
+        <v>0.9999997290767715</v>
+      </c>
+      <c r="J20">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="K20">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="L20">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="M20">
+        <v>0.9999998989128803</v>
+      </c>
+      <c r="N20">
+        <v>0.9999998989128803</v>
+      </c>
+      <c r="O20">
+        <v>0.9999998834410694</v>
+      </c>
+      <c r="P20">
+        <v>0.9999999555249165</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999999555249165</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999838309347</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999838309347</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999945829231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="D21">
+        <v>0.9999968575015092</v>
+      </c>
+      <c r="E21">
+        <v>1.000003810067097</v>
+      </c>
+      <c r="F21">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="G21">
+        <v>0.999994283592983</v>
+      </c>
+      <c r="H21">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="I21">
+        <v>0.999994283592983</v>
+      </c>
+      <c r="J21">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="K21">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="L21">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="M21">
+        <v>0.9999978566671865</v>
+      </c>
+      <c r="N21">
+        <v>0.9999978566671865</v>
+      </c>
+      <c r="O21">
+        <v>0.9999975236119608</v>
+      </c>
+      <c r="P21">
+        <v>0.9999990476919211</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999990476919211</v>
+      </c>
+      <c r="R21">
+        <v>0.9999996432042884</v>
+      </c>
+      <c r="S21">
+        <v>0.9999996432042884</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998733976266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="D22">
+        <v>0.9999889348666909</v>
+      </c>
+      <c r="E22">
+        <v>1.000013414743481</v>
+      </c>
+      <c r="F22">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="G22">
+        <v>0.9999798803156478</v>
+      </c>
+      <c r="H22">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="I22">
+        <v>0.9999798803156478</v>
+      </c>
+      <c r="J22">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="K22">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="L22">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="M22">
+        <v>0.9999924538747331</v>
+      </c>
+      <c r="N22">
+        <v>0.9999924538747331</v>
+      </c>
+      <c r="O22">
+        <v>0.9999912808720524</v>
+      </c>
+      <c r="P22">
+        <v>0.999996645061095</v>
+      </c>
+      <c r="Q22">
+        <v>0.999996645061095</v>
+      </c>
+      <c r="R22">
+        <v>0.9999987406542759</v>
+      </c>
+      <c r="S22">
+        <v>0.9999987406542759</v>
+      </c>
+      <c r="T22">
+        <v>0.9999995520378793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000011784194715</v>
       </c>
-      <c r="D19">
-        <v>0.9999528592053134</v>
-      </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.9999740771842739</v>
+      </c>
+      <c r="E23">
+        <v>1.000031427864921</v>
+      </c>
+      <c r="F23">
         <v>1.000011784194715</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>0.9999528592053132</v>
+      </c>
+      <c r="H23">
         <v>1.000011784194715</v>
       </c>
-      <c r="G19">
-        <v>1.000031427864921</v>
-      </c>
-      <c r="H19">
-        <v>0.9999740771842739</v>
-      </c>
-      <c r="I19">
+      <c r="I23">
+        <v>0.9999528592053132</v>
+      </c>
+      <c r="J23">
         <v>1.000011784194715</v>
       </c>
-      <c r="J19">
-        <v>0.9999528592053134</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000011784194715</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000011784194715</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999823217000141</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999823217000141</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9999795735281007</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999992142531581</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.999992142531581</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999970529473645</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999970529473645</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999989528064422</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000016338396526</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="D3">
-        <v>0.9999640576297208</v>
+        <v>0.9996704890706049</v>
       </c>
       <c r="E3">
-        <v>1.000043567909944</v>
+        <v>1.000399408191643</v>
       </c>
       <c r="F3">
-        <v>1.000016338396526</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="G3">
-        <v>0.9999346473816181</v>
+        <v>0.9994008862536017</v>
       </c>
       <c r="H3">
-        <v>1.000016338396526</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="I3">
-        <v>0.9999346473816181</v>
+        <v>0.9994008862536017</v>
       </c>
       <c r="J3">
-        <v>1.000016338396526</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="K3">
-        <v>1.000016338396526</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="L3">
-        <v>1.000016338396526</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="M3">
-        <v>0.9999754928890721</v>
+        <v>0.9997753320965408</v>
       </c>
       <c r="N3">
-        <v>0.9999754928890721</v>
+        <v>0.9997753320965408</v>
       </c>
       <c r="O3">
-        <v>0.999971681135955</v>
+        <v>0.9997403844212288</v>
       </c>
       <c r="P3">
-        <v>0.9999891080582234</v>
+        <v>0.9999001473775205</v>
       </c>
       <c r="Q3">
-        <v>0.9999891080582234</v>
+        <v>0.9999001473775205</v>
       </c>
       <c r="R3">
-        <v>0.9999959156427991</v>
+        <v>0.9999625550180103</v>
       </c>
       <c r="S3">
-        <v>0.9999959156427991</v>
+        <v>0.9999625550180103</v>
       </c>
       <c r="T3">
-        <v>0.999998548018477</v>
+        <v>0.9999866862223815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000031539742068</v>
+        <v>1.000145413343272</v>
       </c>
       <c r="D4">
-        <v>0.9999306125977502</v>
+        <v>0.9996800922661222</v>
       </c>
       <c r="E4">
-        <v>1.000084107185589</v>
+        <v>1.000387767871785</v>
       </c>
       <c r="F4">
-        <v>1.000031539742068</v>
+        <v>1.000145413343272</v>
       </c>
       <c r="G4">
-        <v>0.9998738379158184</v>
+        <v>0.9994183466418175</v>
       </c>
       <c r="H4">
-        <v>1.000031539742068</v>
+        <v>1.000145413343272</v>
       </c>
       <c r="I4">
-        <v>0.9998738379158184</v>
+        <v>0.9994183466418175</v>
       </c>
       <c r="J4">
-        <v>1.000031539742068</v>
+        <v>1.000145413343272</v>
       </c>
       <c r="K4">
-        <v>1.000031539742068</v>
+        <v>1.000145413343272</v>
       </c>
       <c r="L4">
-        <v>1.000031539742068</v>
+        <v>1.000145413343272</v>
       </c>
       <c r="M4">
-        <v>0.9999526888289432</v>
+        <v>0.9997818799925449</v>
       </c>
       <c r="N4">
-        <v>0.9999526888289432</v>
+        <v>0.9997818799925449</v>
       </c>
       <c r="O4">
-        <v>0.9999453300852122</v>
+        <v>0.9997479507504039</v>
       </c>
       <c r="P4">
-        <v>0.9999789724666514</v>
+        <v>0.9999030577761205</v>
       </c>
       <c r="Q4">
-        <v>0.9999789724666514</v>
+        <v>0.9999030577761205</v>
       </c>
       <c r="R4">
-        <v>0.9999921142855055</v>
+        <v>0.9999636466679085</v>
       </c>
       <c r="S4">
-        <v>0.9999921142855055</v>
+        <v>0.9999636466679085</v>
       </c>
       <c r="T4">
-        <v>0.999997196154227</v>
+        <v>0.999987074468257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000060441175615</v>
+        <v>1.000159398328842</v>
       </c>
       <c r="D5">
-        <v>0.9998670266168441</v>
+        <v>0.9996493214285702</v>
       </c>
       <c r="E5">
-        <v>1.000161184662702</v>
+        <v>1.000425068948788</v>
       </c>
       <c r="F5">
-        <v>1.000060441175615</v>
+        <v>1.000159398328842</v>
       </c>
       <c r="G5">
-        <v>0.9997582249966338</v>
+        <v>0.9993623984905673</v>
       </c>
       <c r="H5">
-        <v>1.000060441175615</v>
+        <v>1.000159398328842</v>
       </c>
       <c r="I5">
-        <v>0.9997582249966338</v>
+        <v>0.9993623984905673</v>
       </c>
       <c r="J5">
-        <v>1.000060441175615</v>
+        <v>1.000159398328842</v>
       </c>
       <c r="K5">
-        <v>1.000060441175615</v>
+        <v>1.000159398328842</v>
       </c>
       <c r="L5">
-        <v>1.000060441175615</v>
+        <v>1.000159398328842</v>
       </c>
       <c r="M5">
-        <v>0.9999093330861244</v>
+        <v>0.9997608984097045</v>
       </c>
       <c r="N5">
-        <v>0.9999093330861244</v>
+        <v>0.9997608984097045</v>
       </c>
       <c r="O5">
-        <v>0.9998952309296977</v>
+        <v>0.9997237060826597</v>
       </c>
       <c r="P5">
-        <v>0.999959702449288</v>
+        <v>0.9998937317160835</v>
       </c>
       <c r="Q5">
-        <v>0.999959702449288</v>
+        <v>0.9998937317160835</v>
       </c>
       <c r="R5">
-        <v>0.9999848871308697</v>
+        <v>0.999960148369273</v>
       </c>
       <c r="S5">
-        <v>0.9999848871308697</v>
+        <v>0.999960148369273</v>
       </c>
       <c r="T5">
-        <v>0.9999946266338376</v>
+        <v>0.9999858306424084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00008864396666</v>
+        <v>1.000169958636365</v>
       </c>
       <c r="D6">
-        <v>0.9998049717797023</v>
+        <v>0.9996260721022728</v>
       </c>
       <c r="E6">
-        <v>1.000236398302213</v>
+        <v>1.000453248125</v>
       </c>
       <c r="F6">
-        <v>1.00008864396666</v>
+        <v>1.000169958636365</v>
       </c>
       <c r="G6">
-        <v>0.9996454002629926</v>
+        <v>0.9993201284090899</v>
       </c>
       <c r="H6">
-        <v>1.00008864396666</v>
+        <v>1.000169958636365</v>
       </c>
       <c r="I6">
-        <v>0.9996454002629926</v>
+        <v>0.9993201284090899</v>
       </c>
       <c r="J6">
-        <v>1.00008864396666</v>
+        <v>1.000169958636365</v>
       </c>
       <c r="K6">
-        <v>1.00008864396666</v>
+        <v>1.000169958636365</v>
       </c>
       <c r="L6">
-        <v>1.00008864396666</v>
+        <v>1.000169958636365</v>
       </c>
       <c r="M6">
-        <v>0.9998670221148264</v>
+        <v>0.9997450435227273</v>
       </c>
       <c r="N6">
-        <v>0.9998670221148264</v>
+        <v>0.9997450435227273</v>
       </c>
       <c r="O6">
-        <v>0.999846338669785</v>
+        <v>0.9997053863825758</v>
       </c>
       <c r="P6">
-        <v>0.9999408960654376</v>
+        <v>0.9998866818939397</v>
       </c>
       <c r="Q6">
-        <v>0.9999408960654376</v>
+        <v>0.9998866818939397</v>
       </c>
       <c r="R6">
-        <v>0.9999778330407432</v>
+        <v>0.999957501079546</v>
       </c>
       <c r="S6">
-        <v>0.9999778330407432</v>
+        <v>0.999957501079546</v>
       </c>
       <c r="T6">
-        <v>0.9999921170408146</v>
+        <v>0.9999848874242429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000001281691743</v>
+        <v>0.9983631834616312</v>
       </c>
       <c r="D7">
-        <v>0.9999971839206597</v>
+        <v>1.003600980409709</v>
       </c>
       <c r="E7">
-        <v>1.000003414213624</v>
+        <v>0.9956351663739874</v>
       </c>
       <c r="F7">
-        <v>1.000001281691743</v>
+        <v>0.9983631834616312</v>
       </c>
       <c r="G7">
-        <v>0.9999948771579318</v>
+        <v>1.00654725474974</v>
       </c>
       <c r="H7">
-        <v>1.000001281691743</v>
+        <v>0.9983631834616312</v>
       </c>
       <c r="I7">
-        <v>0.9999948771579318</v>
+        <v>1.00654725474974</v>
       </c>
       <c r="J7">
-        <v>1.000001281691743</v>
+        <v>0.9983631834616312</v>
       </c>
       <c r="K7">
-        <v>1.000001281691743</v>
+        <v>0.9983631834616312</v>
       </c>
       <c r="L7">
-        <v>1.000001281691743</v>
+        <v>0.9983631834616312</v>
       </c>
       <c r="M7">
-        <v>0.9999980794248375</v>
+        <v>1.002455219105686</v>
       </c>
       <c r="N7">
-        <v>0.9999980794248375</v>
+        <v>1.002455219105686</v>
       </c>
       <c r="O7">
-        <v>0.9999977809234449</v>
+        <v>1.00283713954036</v>
       </c>
       <c r="P7">
-        <v>0.9999991468471393</v>
+        <v>1.001091207224334</v>
       </c>
       <c r="Q7">
-        <v>0.9999991468471393</v>
+        <v>1.001091207224334</v>
       </c>
       <c r="R7">
-        <v>0.9999996805582902</v>
+        <v>1.000409201283659</v>
       </c>
       <c r="S7">
-        <v>0.9999996805582902</v>
+        <v>1.000409201283659</v>
       </c>
       <c r="T7">
-        <v>0.9999998867279074</v>
+        <v>1.000145491986389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000002899690642</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="D8">
-        <v>0.9999936241919529</v>
+        <v>1.003568425353362</v>
       </c>
       <c r="E8">
-        <v>1.00000772897914</v>
+        <v>0.9956746270526025</v>
       </c>
       <c r="F8">
-        <v>1.000002899690642</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="G8">
-        <v>0.9999884049616453</v>
+        <v>1.006488063603119</v>
       </c>
       <c r="H8">
-        <v>1.000002899690642</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="I8">
-        <v>0.9999884049616453</v>
+        <v>1.006488063603119</v>
       </c>
       <c r="J8">
-        <v>1.000002899690642</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="K8">
-        <v>1.000002899690642</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="L8">
-        <v>1.000002899690642</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="M8">
-        <v>0.9999956523261437</v>
+        <v>1.002433022361199</v>
       </c>
       <c r="N8">
-        <v>0.9999956523261437</v>
+        <v>1.002433022361199</v>
       </c>
       <c r="O8">
-        <v>0.9999949762814134</v>
+        <v>1.002811490025253</v>
       </c>
       <c r="P8">
-        <v>0.9999980681143098</v>
+        <v>1.001081341947226</v>
       </c>
       <c r="Q8">
-        <v>0.9999980681143098</v>
+        <v>1.001081341947226</v>
       </c>
       <c r="R8">
-        <v>0.9999992760083929</v>
+        <v>1.000405501740239</v>
       </c>
       <c r="S8">
-        <v>0.9999992760083929</v>
+        <v>1.000405501740239</v>
       </c>
       <c r="T8">
-        <v>0.9999997428674442</v>
+        <v>1.000144176561153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000004960130395</v>
+        <v>0.9983889943460308</v>
       </c>
       <c r="D9">
-        <v>0.9999890924653462</v>
+        <v>1.00354419608557</v>
       </c>
       <c r="E9">
-        <v>1.000013221860407</v>
+        <v>0.9957039958964303</v>
       </c>
       <c r="F9">
-        <v>1.000004960130395</v>
+        <v>0.9983889943460308</v>
       </c>
       <c r="G9">
-        <v>0.9999801647846362</v>
+        <v>1.00644401027757</v>
       </c>
       <c r="H9">
-        <v>1.000004960130395</v>
+        <v>0.9983889943460308</v>
       </c>
       <c r="I9">
-        <v>0.9999801647846362</v>
+        <v>1.00644401027757</v>
       </c>
       <c r="J9">
-        <v>1.000004960130395</v>
+        <v>0.9983889943460308</v>
       </c>
       <c r="K9">
-        <v>1.000004960130395</v>
+        <v>0.9983889943460308</v>
       </c>
       <c r="L9">
-        <v>1.000004960130395</v>
+        <v>0.9983889943460308</v>
       </c>
       <c r="M9">
-        <v>0.9999925624575157</v>
+        <v>1.0024165023118</v>
       </c>
       <c r="N9">
-        <v>0.9999925624575157</v>
+        <v>1.0024165023118</v>
       </c>
       <c r="O9">
-        <v>0.9999914057934592</v>
+        <v>1.00279240023639</v>
       </c>
       <c r="P9">
-        <v>0.9999966950151421</v>
+        <v>1.001073999656544</v>
       </c>
       <c r="Q9">
-        <v>0.9999966950151421</v>
+        <v>1.001073999656544</v>
       </c>
       <c r="R9">
-        <v>0.9999987612939554</v>
+        <v>1.000402748328916</v>
       </c>
       <c r="S9">
-        <v>0.9999987612939554</v>
+        <v>1.000402748328916</v>
       </c>
       <c r="T9">
-        <v>0.999999559916929</v>
+        <v>1.00014319754961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000009950724764</v>
+        <v>0.9984298164102552</v>
       </c>
       <c r="D10">
-        <v>0.9999781122502857</v>
+        <v>1.003454386932708</v>
       </c>
       <c r="E10">
-        <v>1.000026532059463</v>
+        <v>0.995812855656201</v>
       </c>
       <c r="F10">
-        <v>1.000009950724764</v>
+        <v>0.9984298164102552</v>
       </c>
       <c r="G10">
-        <v>0.99996020007389</v>
+        <v>1.006280720482863</v>
       </c>
       <c r="H10">
-        <v>1.000009950724764</v>
+        <v>0.9984298164102552</v>
       </c>
       <c r="I10">
-        <v>0.99996020007389</v>
+        <v>1.006280720482863</v>
       </c>
       <c r="J10">
-        <v>1.000009950724764</v>
+        <v>0.9984298164102552</v>
       </c>
       <c r="K10">
-        <v>1.000009950724764</v>
+        <v>0.9984298164102552</v>
       </c>
       <c r="L10">
-        <v>1.000009950724764</v>
+        <v>0.9984298164102552</v>
       </c>
       <c r="M10">
-        <v>0.9999850753993267</v>
+        <v>1.002355268446559</v>
       </c>
       <c r="N10">
-        <v>0.9999850753993267</v>
+        <v>1.002355268446559</v>
       </c>
       <c r="O10">
-        <v>0.9999827543496463</v>
+        <v>1.002721641275276</v>
       </c>
       <c r="P10">
-        <v>0.9999933671744724</v>
+        <v>1.001046784434458</v>
       </c>
       <c r="Q10">
-        <v>0.9999933671744724</v>
+        <v>1.001046784434458</v>
       </c>
       <c r="R10">
-        <v>0.9999975130620451</v>
+        <v>1.000392542428407</v>
       </c>
       <c r="S10">
-        <v>0.9999975130620451</v>
+        <v>1.000392542428407</v>
       </c>
       <c r="T10">
-        <v>0.9999991160929881</v>
+        <v>1.00013956871709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000017947384466</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="D11">
-        <v>0.9999605203613787</v>
+        <v>0.9999760003961758</v>
       </c>
       <c r="E11">
-        <v>1.000047852440248</v>
+        <v>1.000029091636075</v>
       </c>
       <c r="F11">
-        <v>1.000017947384466</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="G11">
-        <v>0.9999282168972887</v>
+        <v>0.9999563618252687</v>
       </c>
       <c r="H11">
-        <v>1.000017947384466</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="I11">
-        <v>0.9999282168972887</v>
+        <v>0.9999563618252687</v>
       </c>
       <c r="J11">
-        <v>1.000017947384466</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="K11">
-        <v>1.000017947384466</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="L11">
-        <v>1.000017947384466</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="M11">
-        <v>0.9999730821408772</v>
+        <v>0.9999836359087815</v>
       </c>
       <c r="N11">
-        <v>0.9999730821408772</v>
+        <v>0.9999836359087815</v>
       </c>
       <c r="O11">
-        <v>0.9999688948810443</v>
+        <v>0.9999810907379129</v>
       </c>
       <c r="P11">
-        <v>0.9999880372220734</v>
+        <v>0.9999927272699525</v>
       </c>
       <c r="Q11">
-        <v>0.9999880372220734</v>
+        <v>0.9999927272699525</v>
       </c>
       <c r="R11">
-        <v>0.9999955147626715</v>
+        <v>0.999997272950538</v>
       </c>
       <c r="S11">
-        <v>0.9999955147626715</v>
+        <v>0.999997272950538</v>
       </c>
       <c r="T11">
-        <v>0.9999984053087188</v>
+        <v>0.9999990306390671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000028097300705</v>
+        <v>1.00000070770367</v>
       </c>
       <c r="D12">
-        <v>0.999938188232406</v>
+        <v>0.9999984461179059</v>
       </c>
       <c r="E12">
-        <v>1.000074918695383</v>
+        <v>1.000001884319768</v>
       </c>
       <c r="F12">
-        <v>1.000028097300705</v>
+        <v>1.00000070770367</v>
       </c>
       <c r="G12">
-        <v>0.9998876122407555</v>
+        <v>0.9999971721247126</v>
       </c>
       <c r="H12">
-        <v>1.000028097300705</v>
+        <v>1.00000070770367</v>
       </c>
       <c r="I12">
-        <v>0.9998876122407555</v>
+        <v>0.9999971721247126</v>
       </c>
       <c r="J12">
-        <v>1.000028097300705</v>
+        <v>1.00000070770367</v>
       </c>
       <c r="K12">
-        <v>1.000028097300705</v>
+        <v>1.00000070770367</v>
       </c>
       <c r="L12">
-        <v>1.000028097300705</v>
+        <v>1.00000070770367</v>
       </c>
       <c r="M12">
-        <v>0.9999578547707304</v>
+        <v>0.9999989399141913</v>
       </c>
       <c r="N12">
-        <v>0.9999578547707304</v>
+        <v>0.9999989399141913</v>
       </c>
       <c r="O12">
-        <v>0.9999512992579556</v>
+        <v>0.9999987753154295</v>
       </c>
       <c r="P12">
-        <v>0.9999812689473887</v>
+        <v>0.999999529177351</v>
       </c>
       <c r="Q12">
-        <v>0.9999812689473887</v>
+        <v>0.999999529177351</v>
       </c>
       <c r="R12">
-        <v>0.9999929760357178</v>
+        <v>0.9999998238089307</v>
       </c>
       <c r="S12">
-        <v>0.9999929760357178</v>
+        <v>0.9999998238089307</v>
       </c>
       <c r="T12">
-        <v>0.9999975018451099</v>
+        <v>0.9999999376122329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000007626290974</v>
+        <v>1.000008674723458</v>
       </c>
       <c r="D13">
-        <v>0.9999832304387672</v>
+        <v>0.9999809138994533</v>
       </c>
       <c r="E13">
-        <v>1.000020322947069</v>
+        <v>1.000023139777674</v>
       </c>
       <c r="F13">
-        <v>1.000007626290974</v>
+        <v>1.000008674723458</v>
       </c>
       <c r="G13">
-        <v>0.999969510855254</v>
+        <v>0.9999652965104874</v>
       </c>
       <c r="H13">
-        <v>1.000007626290974</v>
+        <v>1.000008674723458</v>
       </c>
       <c r="I13">
-        <v>0.999969510855254</v>
+        <v>0.9999652965104874</v>
       </c>
       <c r="J13">
-        <v>1.000007626290974</v>
+        <v>1.000008674723458</v>
       </c>
       <c r="K13">
-        <v>1.000007626290974</v>
+        <v>1.000008674723458</v>
       </c>
       <c r="L13">
-        <v>1.000007626290974</v>
+        <v>1.000008674723458</v>
       </c>
       <c r="M13">
-        <v>0.9999885685731138</v>
+        <v>0.9999869856169725</v>
       </c>
       <c r="N13">
-        <v>0.9999885685731138</v>
+        <v>0.9999869856169725</v>
       </c>
       <c r="O13">
-        <v>0.9999867891949984</v>
+        <v>0.9999849617111328</v>
       </c>
       <c r="P13">
-        <v>0.9999949211457336</v>
+        <v>0.9999942153191342</v>
       </c>
       <c r="Q13">
-        <v>0.9999949211457336</v>
+        <v>0.9999942153191342</v>
       </c>
       <c r="R13">
-        <v>0.9999980974320437</v>
+        <v>0.9999978301702152</v>
       </c>
       <c r="S13">
-        <v>0.9999980974320437</v>
+        <v>0.9999978301702152</v>
       </c>
       <c r="T13">
-        <v>0.999999323852335</v>
+        <v>0.9999992290596648</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002089797253162</v>
+        <v>1.000045253680581</v>
       </c>
       <c r="D14">
-        <v>0.9954024506878769</v>
+        <v>0.9999004344831155</v>
       </c>
       <c r="E14">
-        <v>1.005572790015801</v>
+        <v>1.000120687368189</v>
       </c>
       <c r="F14">
-        <v>1.002089797253162</v>
+        <v>1.000045253680581</v>
       </c>
       <c r="G14">
-        <v>0.9916408172691078</v>
+        <v>0.9998189671308427</v>
       </c>
       <c r="H14">
-        <v>1.002089797253162</v>
+        <v>1.000045253680581</v>
       </c>
       <c r="I14">
-        <v>0.9916408172691078</v>
+        <v>0.9998189671308427</v>
       </c>
       <c r="J14">
-        <v>1.002089797253162</v>
+        <v>1.000045253680581</v>
       </c>
       <c r="K14">
-        <v>1.002089797253162</v>
+        <v>1.000045253680581</v>
       </c>
       <c r="L14">
-        <v>1.002089797253162</v>
+        <v>1.000045253680581</v>
       </c>
       <c r="M14">
-        <v>0.9968653072611348</v>
+        <v>0.9999321104057119</v>
       </c>
       <c r="N14">
-        <v>0.9968653072611348</v>
+        <v>0.9999321104057119</v>
       </c>
       <c r="O14">
-        <v>0.9963776884033821</v>
+        <v>0.9999215517648464</v>
       </c>
       <c r="P14">
-        <v>0.9986068039251438</v>
+        <v>0.9999698248306684</v>
       </c>
       <c r="Q14">
-        <v>0.9986068039251438</v>
+        <v>0.9999698248306684</v>
       </c>
       <c r="R14">
-        <v>0.9994775522571482</v>
+        <v>0.9999886820431467</v>
       </c>
       <c r="S14">
-        <v>0.9994775522571482</v>
+        <v>0.9999886820431467</v>
       </c>
       <c r="T14">
-        <v>0.9998142416220452</v>
+        <v>0.9999959750039819</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000561146984666</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="D15">
-        <v>0.9987654929139987</v>
+        <v>0.9999640576297208</v>
       </c>
       <c r="E15">
-        <v>1.001496364492529</v>
+        <v>1.000043567909944</v>
       </c>
       <c r="F15">
-        <v>1.000561146984666</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="G15">
-        <v>0.9977554399469895</v>
+        <v>0.9999346473816181</v>
       </c>
       <c r="H15">
-        <v>1.000561146984666</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="I15">
-        <v>0.9977554399469895</v>
+        <v>0.9999346473816181</v>
       </c>
       <c r="J15">
-        <v>1.000561146984666</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="K15">
-        <v>1.000561146984666</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="L15">
-        <v>1.000561146984666</v>
+        <v>1.000016338396526</v>
       </c>
       <c r="M15">
-        <v>0.9991582934658279</v>
+        <v>0.9999754928890721</v>
       </c>
       <c r="N15">
-        <v>0.9991582934658279</v>
+        <v>0.9999754928890721</v>
       </c>
       <c r="O15">
-        <v>0.9990273599485514</v>
+        <v>0.999971681135955</v>
       </c>
       <c r="P15">
-        <v>0.9996259113054405</v>
+        <v>0.9999891080582234</v>
       </c>
       <c r="Q15">
-        <v>0.9996259113054405</v>
+        <v>0.9999891080582234</v>
       </c>
       <c r="R15">
-        <v>0.9998597202252471</v>
+        <v>0.9999959156427991</v>
       </c>
       <c r="S15">
-        <v>0.9998597202252471</v>
+        <v>0.9999959156427991</v>
       </c>
       <c r="T15">
-        <v>0.9999501230512525</v>
+        <v>0.999998548018477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000318708767534</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="D16">
-        <v>0.9992988290654526</v>
+        <v>0.9999306125977502</v>
       </c>
       <c r="E16">
-        <v>1.000849909411802</v>
+        <v>1.000084107185589</v>
       </c>
       <c r="F16">
-        <v>1.000318708767534</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="G16">
-        <v>0.9987251366199655</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="H16">
-        <v>1.000318708767534</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="I16">
-        <v>0.9987251366199655</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="J16">
-        <v>1.000318708767534</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="K16">
-        <v>1.000318708767534</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="L16">
-        <v>1.000318708767534</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="M16">
-        <v>0.9995219226937497</v>
+        <v>0.9999526888289432</v>
       </c>
       <c r="N16">
-        <v>0.9995219226937497</v>
+        <v>0.9999526888289432</v>
       </c>
       <c r="O16">
-        <v>0.9994475581509841</v>
+        <v>0.9999453300852122</v>
       </c>
       <c r="P16">
-        <v>0.9997875180516779</v>
+        <v>0.9999789724666514</v>
       </c>
       <c r="Q16">
-        <v>0.9997875180516779</v>
+        <v>0.9999789724666514</v>
       </c>
       <c r="R16">
-        <v>0.9999203157306418</v>
+        <v>0.9999921142855055</v>
       </c>
       <c r="S16">
-        <v>0.9999203157306418</v>
+        <v>0.9999921142855055</v>
       </c>
       <c r="T16">
-        <v>0.9999716668999703</v>
+        <v>0.999997196154227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000260972917643</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="D17">
-        <v>0.9994258526412551</v>
+        <v>0.9998670266168441</v>
       </c>
       <c r="E17">
-        <v>1.000695939983929</v>
+        <v>1.000161184662702</v>
       </c>
       <c r="F17">
-        <v>1.000260972917643</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="G17">
-        <v>0.9989560899721304</v>
+        <v>0.9997582249966338</v>
       </c>
       <c r="H17">
-        <v>1.000260972917643</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="I17">
-        <v>0.9989560899721304</v>
+        <v>0.9997582249966338</v>
       </c>
       <c r="J17">
-        <v>1.000260972917643</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="K17">
-        <v>1.000260972917643</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="L17">
-        <v>1.000260972917643</v>
+        <v>1.000060441175615</v>
       </c>
       <c r="M17">
-        <v>0.9996085314448868</v>
+        <v>0.9999093330861244</v>
       </c>
       <c r="N17">
-        <v>0.9996085314448868</v>
+        <v>0.9999093330861244</v>
       </c>
       <c r="O17">
-        <v>0.9995476385103429</v>
+        <v>0.9998952309296977</v>
       </c>
       <c r="P17">
-        <v>0.9998260119358057</v>
+        <v>0.999959702449288</v>
       </c>
       <c r="Q17">
-        <v>0.9998260119358057</v>
+        <v>0.999959702449288</v>
       </c>
       <c r="R17">
-        <v>0.999934752181265</v>
+        <v>0.9999848871308697</v>
       </c>
       <c r="S17">
-        <v>0.999934752181265</v>
+        <v>0.9999848871308697</v>
       </c>
       <c r="T17">
-        <v>0.9999768002250407</v>
+        <v>0.9999946266338376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000145233265121</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="D18">
-        <v>0.9996804886355188</v>
+        <v>0.9998049717797023</v>
       </c>
       <c r="E18">
-        <v>1.000387289748782</v>
+        <v>1.000236398302213</v>
       </c>
       <c r="F18">
-        <v>1.000145233265121</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="G18">
-        <v>0.9994190665781356</v>
+        <v>0.9996454002629926</v>
       </c>
       <c r="H18">
-        <v>1.000145233265121</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="I18">
-        <v>0.9994190665781356</v>
+        <v>0.9996454002629926</v>
       </c>
       <c r="J18">
-        <v>1.000145233265121</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="K18">
-        <v>1.000145233265121</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="L18">
-        <v>1.000145233265121</v>
+        <v>1.00008864396666</v>
       </c>
       <c r="M18">
-        <v>0.9997821499216282</v>
+        <v>0.9998670221148264</v>
       </c>
       <c r="N18">
-        <v>0.9997821499216282</v>
+        <v>0.9998670221148264</v>
       </c>
       <c r="O18">
-        <v>0.9997482628262584</v>
+        <v>0.999846338669785</v>
       </c>
       <c r="P18">
-        <v>0.9999031777027924</v>
+        <v>0.9999408960654376</v>
       </c>
       <c r="Q18">
-        <v>0.9999031777027924</v>
+        <v>0.9999408960654376</v>
       </c>
       <c r="R18">
-        <v>0.9999636915933745</v>
+        <v>0.9999778330407432</v>
       </c>
       <c r="S18">
-        <v>0.9999636915933745</v>
+        <v>0.9999778330407432</v>
       </c>
       <c r="T18">
-        <v>0.9999870907929664</v>
+        <v>0.9999921170408146</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000149368771602</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="D19">
-        <v>0.9996713865245302</v>
+        <v>0.9999971839206597</v>
       </c>
       <c r="E19">
-        <v>1.000398322385714</v>
+        <v>1.000003414213624</v>
       </c>
       <c r="F19">
-        <v>1.000149368771602</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="G19">
-        <v>0.999402519203732</v>
+        <v>0.9999948771579318</v>
       </c>
       <c r="H19">
-        <v>1.000149368771602</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="I19">
-        <v>0.999402519203732</v>
+        <v>0.9999948771579318</v>
       </c>
       <c r="J19">
-        <v>1.000149368771602</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="K19">
-        <v>1.000149368771602</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="L19">
-        <v>1.000149368771602</v>
+        <v>1.000001281691743</v>
       </c>
       <c r="M19">
-        <v>0.999775943987667</v>
+        <v>0.9999980794248375</v>
       </c>
       <c r="N19">
-        <v>0.999775943987667</v>
+        <v>0.9999980794248375</v>
       </c>
       <c r="O19">
-        <v>0.9997410914999548</v>
+        <v>0.9999977809234449</v>
       </c>
       <c r="P19">
-        <v>0.9999004189156452</v>
+        <v>0.9999991468471393</v>
       </c>
       <c r="Q19">
-        <v>0.9999004189156452</v>
+        <v>0.9999991468471393</v>
       </c>
       <c r="R19">
-        <v>0.9999626563796344</v>
+        <v>0.9999996805582902</v>
       </c>
       <c r="S19">
-        <v>0.9999626563796344</v>
+        <v>0.9999996805582902</v>
       </c>
       <c r="T19">
-        <v>0.999986722404797</v>
+        <v>0.9999998867279074</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000068748989</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="D20">
-        <v>0.9999998524974475</v>
+        <v>0.9999936241919529</v>
       </c>
       <c r="E20">
-        <v>1.000000179676352</v>
+        <v>1.00000772897914</v>
       </c>
       <c r="F20">
-        <v>1.000000068748989</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="G20">
-        <v>0.9999997290767715</v>
+        <v>0.9999884049616453</v>
       </c>
       <c r="H20">
-        <v>1.000000068748989</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="I20">
-        <v>0.9999997290767715</v>
+        <v>0.9999884049616453</v>
       </c>
       <c r="J20">
-        <v>1.000000068748989</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="K20">
-        <v>1.000000068748989</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="L20">
-        <v>1.000000068748989</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="M20">
-        <v>0.9999998989128803</v>
+        <v>0.9999956523261437</v>
       </c>
       <c r="N20">
-        <v>0.9999998989128803</v>
+        <v>0.9999956523261437</v>
       </c>
       <c r="O20">
-        <v>0.9999998834410694</v>
+        <v>0.9999949762814134</v>
       </c>
       <c r="P20">
-        <v>0.9999999555249165</v>
+        <v>0.9999980681143098</v>
       </c>
       <c r="Q20">
-        <v>0.9999999555249165</v>
+        <v>0.9999980681143098</v>
       </c>
       <c r="R20">
-        <v>0.9999999838309347</v>
+        <v>0.9999992760083929</v>
       </c>
       <c r="S20">
-        <v>0.9999999838309347</v>
+        <v>0.9999992760083929</v>
       </c>
       <c r="T20">
-        <v>0.9999999945829231</v>
+        <v>0.9999997428674442</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00000142974139</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="D21">
-        <v>0.9999968575015092</v>
+        <v>0.9999890924653462</v>
       </c>
       <c r="E21">
-        <v>1.000003810067097</v>
+        <v>1.000013221860407</v>
       </c>
       <c r="F21">
-        <v>1.00000142974139</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="G21">
-        <v>0.999994283592983</v>
+        <v>0.9999801647846362</v>
       </c>
       <c r="H21">
-        <v>1.00000142974139</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="I21">
-        <v>0.999994283592983</v>
+        <v>0.9999801647846362</v>
       </c>
       <c r="J21">
-        <v>1.00000142974139</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="K21">
-        <v>1.00000142974139</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="L21">
-        <v>1.00000142974139</v>
+        <v>1.000004960130395</v>
       </c>
       <c r="M21">
-        <v>0.9999978566671865</v>
+        <v>0.9999925624575157</v>
       </c>
       <c r="N21">
-        <v>0.9999978566671865</v>
+        <v>0.9999925624575157</v>
       </c>
       <c r="O21">
-        <v>0.9999975236119608</v>
+        <v>0.9999914057934592</v>
       </c>
       <c r="P21">
-        <v>0.9999990476919211</v>
+        <v>0.9999966950151421</v>
       </c>
       <c r="Q21">
-        <v>0.9999990476919211</v>
+        <v>0.9999966950151421</v>
       </c>
       <c r="R21">
-        <v>0.9999996432042884</v>
+        <v>0.9999987612939554</v>
       </c>
       <c r="S21">
-        <v>0.9999996432042884</v>
+        <v>0.9999987612939554</v>
       </c>
       <c r="T21">
-        <v>0.9999998733976266</v>
+        <v>0.999999559916929</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000005027433818</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="D22">
-        <v>0.9999889348666909</v>
+        <v>0.9999781122502857</v>
       </c>
       <c r="E22">
-        <v>1.000013414743481</v>
+        <v>1.000026532059463</v>
       </c>
       <c r="F22">
-        <v>1.000005027433818</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="G22">
-        <v>0.9999798803156478</v>
+        <v>0.99996020007389</v>
       </c>
       <c r="H22">
-        <v>1.000005027433818</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="I22">
-        <v>0.9999798803156478</v>
+        <v>0.99996020007389</v>
       </c>
       <c r="J22">
-        <v>1.000005027433818</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="K22">
-        <v>1.000005027433818</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="L22">
-        <v>1.000005027433818</v>
+        <v>1.000009950724764</v>
       </c>
       <c r="M22">
-        <v>0.9999924538747331</v>
+        <v>0.9999850753993267</v>
       </c>
       <c r="N22">
-        <v>0.9999924538747331</v>
+        <v>0.9999850753993267</v>
       </c>
       <c r="O22">
-        <v>0.9999912808720524</v>
+        <v>0.9999827543496463</v>
       </c>
       <c r="P22">
-        <v>0.999996645061095</v>
+        <v>0.9999933671744724</v>
       </c>
       <c r="Q22">
-        <v>0.999996645061095</v>
+        <v>0.9999933671744724</v>
       </c>
       <c r="R22">
-        <v>0.9999987406542759</v>
+        <v>0.9999975130620451</v>
       </c>
       <c r="S22">
-        <v>0.9999987406542759</v>
+        <v>0.9999975130620451</v>
       </c>
       <c r="T22">
-        <v>0.9999995520378793</v>
+        <v>0.9999991160929881</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000017947384466</v>
+      </c>
+      <c r="D23">
+        <v>0.9999605203613787</v>
+      </c>
+      <c r="E23">
+        <v>1.000047852440248</v>
+      </c>
+      <c r="F23">
+        <v>1.000017947384466</v>
+      </c>
+      <c r="G23">
+        <v>0.9999282168972887</v>
+      </c>
+      <c r="H23">
+        <v>1.000017947384466</v>
+      </c>
+      <c r="I23">
+        <v>0.9999282168972887</v>
+      </c>
+      <c r="J23">
+        <v>1.000017947384466</v>
+      </c>
+      <c r="K23">
+        <v>1.000017947384466</v>
+      </c>
+      <c r="L23">
+        <v>1.000017947384466</v>
+      </c>
+      <c r="M23">
+        <v>0.9999730821408772</v>
+      </c>
+      <c r="N23">
+        <v>0.9999730821408772</v>
+      </c>
+      <c r="O23">
+        <v>0.9999688948810443</v>
+      </c>
+      <c r="P23">
+        <v>0.9999880372220734</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999880372220734</v>
+      </c>
+      <c r="R23">
+        <v>0.9999955147626715</v>
+      </c>
+      <c r="S23">
+        <v>0.9999955147626715</v>
+      </c>
+      <c r="T23">
+        <v>0.9999984053087188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="D24">
+        <v>0.999938188232406</v>
+      </c>
+      <c r="E24">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="F24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="G24">
+        <v>0.9998876122407555</v>
+      </c>
+      <c r="H24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="I24">
+        <v>0.9998876122407555</v>
+      </c>
+      <c r="J24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="K24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="L24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="M24">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="N24">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="O24">
+        <v>0.9999512992579556</v>
+      </c>
+      <c r="P24">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="R24">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="S24">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="T24">
+        <v>0.9999975018451099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="D25">
+        <v>0.9999832304387672</v>
+      </c>
+      <c r="E25">
+        <v>1.000020322947069</v>
+      </c>
+      <c r="F25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G25">
+        <v>0.999969510855254</v>
+      </c>
+      <c r="H25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="I25">
+        <v>0.999969510855254</v>
+      </c>
+      <c r="J25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="K25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="L25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="M25">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="N25">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="O25">
+        <v>0.9999867891949984</v>
+      </c>
+      <c r="P25">
+        <v>0.9999949211457336</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999949211457336</v>
+      </c>
+      <c r="R25">
+        <v>0.9999980974320437</v>
+      </c>
+      <c r="S25">
+        <v>0.9999980974320437</v>
+      </c>
+      <c r="T25">
+        <v>0.999999323852335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="D26">
+        <v>0.9954024506878769</v>
+      </c>
+      <c r="E26">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="F26">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="G26">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="H26">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="I26">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="J26">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="K26">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="L26">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="M26">
+        <v>0.9968653072611348</v>
+      </c>
+      <c r="N26">
+        <v>0.9968653072611348</v>
+      </c>
+      <c r="O26">
+        <v>0.9963776884033821</v>
+      </c>
+      <c r="P26">
+        <v>0.9986068039251438</v>
+      </c>
+      <c r="Q26">
+        <v>0.9986068039251438</v>
+      </c>
+      <c r="R26">
+        <v>0.9994775522571482</v>
+      </c>
+      <c r="S26">
+        <v>0.9994775522571482</v>
+      </c>
+      <c r="T26">
+        <v>0.9998142416220452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="D27">
+        <v>0.9987654929139987</v>
+      </c>
+      <c r="E27">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="F27">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="G27">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="H27">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="I27">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="J27">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="K27">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="L27">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="M27">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="N27">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="O27">
+        <v>0.9990273599485514</v>
+      </c>
+      <c r="P27">
+        <v>0.9996259113054405</v>
+      </c>
+      <c r="Q27">
+        <v>0.9996259113054405</v>
+      </c>
+      <c r="R27">
+        <v>0.9998597202252471</v>
+      </c>
+      <c r="S27">
+        <v>0.9998597202252471</v>
+      </c>
+      <c r="T27">
+        <v>0.9999501230512525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000318708767534</v>
+      </c>
+      <c r="D28">
+        <v>0.9992988290654526</v>
+      </c>
+      <c r="E28">
+        <v>1.000849909411802</v>
+      </c>
+      <c r="F28">
+        <v>1.000318708767534</v>
+      </c>
+      <c r="G28">
+        <v>0.9987251366199655</v>
+      </c>
+      <c r="H28">
+        <v>1.000318708767534</v>
+      </c>
+      <c r="I28">
+        <v>0.9987251366199655</v>
+      </c>
+      <c r="J28">
+        <v>1.000318708767534</v>
+      </c>
+      <c r="K28">
+        <v>1.000318708767534</v>
+      </c>
+      <c r="L28">
+        <v>1.000318708767534</v>
+      </c>
+      <c r="M28">
+        <v>0.9995219226937497</v>
+      </c>
+      <c r="N28">
+        <v>0.9995219226937497</v>
+      </c>
+      <c r="O28">
+        <v>0.9994475581509841</v>
+      </c>
+      <c r="P28">
+        <v>0.9997875180516779</v>
+      </c>
+      <c r="Q28">
+        <v>0.9997875180516779</v>
+      </c>
+      <c r="R28">
+        <v>0.9999203157306418</v>
+      </c>
+      <c r="S28">
+        <v>0.9999203157306418</v>
+      </c>
+      <c r="T28">
+        <v>0.9999716668999703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000260972917643</v>
+      </c>
+      <c r="D29">
+        <v>0.9994258526412551</v>
+      </c>
+      <c r="E29">
+        <v>1.000695939983929</v>
+      </c>
+      <c r="F29">
+        <v>1.000260972917643</v>
+      </c>
+      <c r="G29">
+        <v>0.9989560899721304</v>
+      </c>
+      <c r="H29">
+        <v>1.000260972917643</v>
+      </c>
+      <c r="I29">
+        <v>0.9989560899721304</v>
+      </c>
+      <c r="J29">
+        <v>1.000260972917643</v>
+      </c>
+      <c r="K29">
+        <v>1.000260972917643</v>
+      </c>
+      <c r="L29">
+        <v>1.000260972917643</v>
+      </c>
+      <c r="M29">
+        <v>0.9996085314448868</v>
+      </c>
+      <c r="N29">
+        <v>0.9996085314448868</v>
+      </c>
+      <c r="O29">
+        <v>0.9995476385103429</v>
+      </c>
+      <c r="P29">
+        <v>0.9998260119358057</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998260119358057</v>
+      </c>
+      <c r="R29">
+        <v>0.999934752181265</v>
+      </c>
+      <c r="S29">
+        <v>0.999934752181265</v>
+      </c>
+      <c r="T29">
+        <v>0.9999768002250407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000145233265121</v>
+      </c>
+      <c r="D30">
+        <v>0.9996804886355188</v>
+      </c>
+      <c r="E30">
+        <v>1.000387289748782</v>
+      </c>
+      <c r="F30">
+        <v>1.000145233265121</v>
+      </c>
+      <c r="G30">
+        <v>0.9994190665781356</v>
+      </c>
+      <c r="H30">
+        <v>1.000145233265121</v>
+      </c>
+      <c r="I30">
+        <v>0.9994190665781356</v>
+      </c>
+      <c r="J30">
+        <v>1.000145233265121</v>
+      </c>
+      <c r="K30">
+        <v>1.000145233265121</v>
+      </c>
+      <c r="L30">
+        <v>1.000145233265121</v>
+      </c>
+      <c r="M30">
+        <v>0.9997821499216282</v>
+      </c>
+      <c r="N30">
+        <v>0.9997821499216282</v>
+      </c>
+      <c r="O30">
+        <v>0.9997482628262584</v>
+      </c>
+      <c r="P30">
+        <v>0.9999031777027924</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999031777027924</v>
+      </c>
+      <c r="R30">
+        <v>0.9999636915933745</v>
+      </c>
+      <c r="S30">
+        <v>0.9999636915933745</v>
+      </c>
+      <c r="T30">
+        <v>0.9999870907929664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="D31">
+        <v>0.9996713865245302</v>
+      </c>
+      <c r="E31">
+        <v>1.000398322385714</v>
+      </c>
+      <c r="F31">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="G31">
+        <v>0.999402519203732</v>
+      </c>
+      <c r="H31">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="I31">
+        <v>0.999402519203732</v>
+      </c>
+      <c r="J31">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="K31">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="L31">
+        <v>1.000149368771602</v>
+      </c>
+      <c r="M31">
+        <v>0.999775943987667</v>
+      </c>
+      <c r="N31">
+        <v>0.999775943987667</v>
+      </c>
+      <c r="O31">
+        <v>0.9997410914999548</v>
+      </c>
+      <c r="P31">
+        <v>0.9999004189156452</v>
+      </c>
+      <c r="Q31">
+        <v>0.9999004189156452</v>
+      </c>
+      <c r="R31">
+        <v>0.9999626563796344</v>
+      </c>
+      <c r="S31">
+        <v>0.9999626563796344</v>
+      </c>
+      <c r="T31">
+        <v>0.999986722404797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.00038567260274</v>
+      </c>
+      <c r="D32">
+        <v>0.9991515034246576</v>
+      </c>
+      <c r="E32">
+        <v>1.001028487397261</v>
+      </c>
+      <c r="F32">
+        <v>1.00038567260274</v>
+      </c>
+      <c r="G32">
+        <v>0.9984572704109588</v>
+      </c>
+      <c r="H32">
+        <v>1.00038567260274</v>
+      </c>
+      <c r="I32">
+        <v>0.9984572704109588</v>
+      </c>
+      <c r="J32">
+        <v>1.00038567260274</v>
+      </c>
+      <c r="K32">
+        <v>1.00038567260274</v>
+      </c>
+      <c r="L32">
+        <v>1.00038567260274</v>
+      </c>
+      <c r="M32">
+        <v>0.9994214715068492</v>
+      </c>
+      <c r="N32">
+        <v>0.9994214715068492</v>
+      </c>
+      <c r="O32">
+        <v>0.9993314821461187</v>
+      </c>
+      <c r="P32">
+        <v>0.9997428718721461</v>
+      </c>
+      <c r="Q32">
+        <v>0.9997428718721461</v>
+      </c>
+      <c r="R32">
+        <v>0.9999035720547945</v>
+      </c>
+      <c r="S32">
+        <v>0.9999035720547945</v>
+      </c>
+      <c r="T32">
+        <v>0.9999657131735159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="D33">
+        <v>0.9993887473684213</v>
+      </c>
+      <c r="E33">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="F33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G33">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="H33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="I33">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="J33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="K33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="L33">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="M33">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="N33">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="O33">
+        <v>0.9995184019298247</v>
+      </c>
+      <c r="P33">
+        <v>0.9998147642105262</v>
+      </c>
+      <c r="Q33">
+        <v>0.9998147642105262</v>
+      </c>
+      <c r="R33">
+        <v>0.9999305317105261</v>
+      </c>
+      <c r="S33">
+        <v>0.9999305317105261</v>
+      </c>
+      <c r="T33">
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="D34">
+        <v>1.003027150526316</v>
+      </c>
+      <c r="E34">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="F34">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="G34">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="H34">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="I34">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="J34">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="K34">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="L34">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="M34">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="N34">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="O34">
+        <v>1.002385029824561</v>
+      </c>
+      <c r="P34">
+        <v>1.00091731754386</v>
+      </c>
+      <c r="Q34">
+        <v>1.00091731754386</v>
+      </c>
+      <c r="R34">
+        <v>1.000343991578947</v>
+      </c>
+      <c r="S34">
+        <v>1.000343991578947</v>
+      </c>
+      <c r="T34">
+        <v>1.000122305877193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.00057342851594</v>
+      </c>
+      <c r="D35">
+        <v>0.9987384331860405</v>
+      </c>
+      <c r="E35">
+        <v>1.001529175274666</v>
+      </c>
+      <c r="F35">
+        <v>1.00057342851594</v>
+      </c>
+      <c r="G35">
+        <v>0.9977062363736353</v>
+      </c>
+      <c r="H35">
+        <v>1.00057342851594</v>
+      </c>
+      <c r="I35">
+        <v>0.9977062363736353</v>
+      </c>
+      <c r="J35">
+        <v>1.00057342851594</v>
+      </c>
+      <c r="K35">
+        <v>1.00057342851594</v>
+      </c>
+      <c r="L35">
+        <v>1.00057342851594</v>
+      </c>
+      <c r="M35">
+        <v>0.9991398324447877</v>
+      </c>
+      <c r="N35">
+        <v>0.9991398324447877</v>
+      </c>
+      <c r="O35">
+        <v>0.9990060326918719</v>
+      </c>
+      <c r="P35">
+        <v>0.9996176978018384</v>
+      </c>
+      <c r="Q35">
+        <v>0.9996176978018384</v>
+      </c>
+      <c r="R35">
+        <v>0.9998566304803638</v>
+      </c>
+      <c r="S35">
+        <v>0.9998566304803638</v>
+      </c>
+      <c r="T35">
+        <v>0.9999490217303605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="D36">
+        <v>0.9999998524974475</v>
+      </c>
+      <c r="E36">
+        <v>1.000000179676352</v>
+      </c>
+      <c r="F36">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="G36">
+        <v>0.9999997290767715</v>
+      </c>
+      <c r="H36">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="I36">
+        <v>0.9999997290767715</v>
+      </c>
+      <c r="J36">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="K36">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="L36">
+        <v>1.000000068748989</v>
+      </c>
+      <c r="M36">
+        <v>0.9999998989128803</v>
+      </c>
+      <c r="N36">
+        <v>0.9999998989128803</v>
+      </c>
+      <c r="O36">
+        <v>0.9999998834410694</v>
+      </c>
+      <c r="P36">
+        <v>0.9999999555249165</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999999555249165</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999838309347</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999838309347</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999945829231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="D37">
+        <v>0.9999968575015092</v>
+      </c>
+      <c r="E37">
+        <v>1.000003810067097</v>
+      </c>
+      <c r="F37">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="G37">
+        <v>0.999994283592983</v>
+      </c>
+      <c r="H37">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="I37">
+        <v>0.999994283592983</v>
+      </c>
+      <c r="J37">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="K37">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="L37">
+        <v>1.00000142974139</v>
+      </c>
+      <c r="M37">
+        <v>0.9999978566671865</v>
+      </c>
+      <c r="N37">
+        <v>0.9999978566671865</v>
+      </c>
+      <c r="O37">
+        <v>0.9999975236119608</v>
+      </c>
+      <c r="P37">
+        <v>0.9999990476919211</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999990476919211</v>
+      </c>
+      <c r="R37">
+        <v>0.9999996432042884</v>
+      </c>
+      <c r="S37">
+        <v>0.9999996432042884</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998733976266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="D38">
+        <v>0.9999889348666909</v>
+      </c>
+      <c r="E38">
+        <v>1.000013414743481</v>
+      </c>
+      <c r="F38">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="G38">
+        <v>0.9999798803156478</v>
+      </c>
+      <c r="H38">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="I38">
+        <v>0.9999798803156478</v>
+      </c>
+      <c r="J38">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="K38">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="L38">
+        <v>1.000005027433818</v>
+      </c>
+      <c r="M38">
+        <v>0.9999924538747331</v>
+      </c>
+      <c r="N38">
+        <v>0.9999924538747331</v>
+      </c>
+      <c r="O38">
+        <v>0.9999912808720524</v>
+      </c>
+      <c r="P38">
+        <v>0.999996645061095</v>
+      </c>
+      <c r="Q38">
+        <v>0.999996645061095</v>
+      </c>
+      <c r="R38">
+        <v>0.9999987406542759</v>
+      </c>
+      <c r="S38">
+        <v>0.9999987406542759</v>
+      </c>
+      <c r="T38">
+        <v>0.9999995520378793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000011784194715</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999740771842739</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000031427864921</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000011784194715</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999528592053132</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000011784194715</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999528592053132</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000011784194715</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000011784194715</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000011784194715</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999823217000141</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999823217000141</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999795735281007</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999992142531581</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999992142531581</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999970529473645</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999970529473645</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999989528064422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9994801685029199</v>
+      </c>
+      <c r="D40">
+        <v>1.001143632669177</v>
+      </c>
+      <c r="E40">
+        <v>0.9986137799594786</v>
+      </c>
+      <c r="F40">
+        <v>0.9994801685029199</v>
+      </c>
+      <c r="G40">
+        <v>1.002079327942958</v>
+      </c>
+      <c r="H40">
+        <v>0.9994801685029199</v>
+      </c>
+      <c r="I40">
+        <v>1.002079327942958</v>
+      </c>
+      <c r="J40">
+        <v>0.9994801685029199</v>
+      </c>
+      <c r="K40">
+        <v>0.9994801685029199</v>
+      </c>
+      <c r="L40">
+        <v>0.9994801685029199</v>
+      </c>
+      <c r="M40">
+        <v>1.000779748222939</v>
+      </c>
+      <c r="N40">
+        <v>1.000779748222939</v>
+      </c>
+      <c r="O40">
+        <v>1.000901043038352</v>
+      </c>
+      <c r="P40">
+        <v>1.000346554982932</v>
+      </c>
+      <c r="Q40">
+        <v>1.000346554982932</v>
+      </c>
+      <c r="R40">
+        <v>1.000129958362929</v>
+      </c>
+      <c r="S40">
+        <v>1.000129958362929</v>
+      </c>
+      <c r="T40">
+        <v>1.000046207680062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9997244136998035</v>
+      </c>
+      <c r="D41">
+        <v>1.000606293031287</v>
+      </c>
+      <c r="E41">
+        <v>0.9992651002985695</v>
+      </c>
+      <c r="F41">
+        <v>0.9997244136998035</v>
+      </c>
+      <c r="G41">
+        <v>1.001102348685403</v>
+      </c>
+      <c r="H41">
+        <v>0.9997244136998035</v>
+      </c>
+      <c r="I41">
+        <v>1.001102348685403</v>
+      </c>
+      <c r="J41">
+        <v>0.9997244136998035</v>
+      </c>
+      <c r="K41">
+        <v>0.9997244136998035</v>
+      </c>
+      <c r="L41">
+        <v>0.9997244136998035</v>
+      </c>
+      <c r="M41">
+        <v>1.000413381192603</v>
+      </c>
+      <c r="N41">
+        <v>1.000413381192603</v>
+      </c>
+      <c r="O41">
+        <v>1.000477685138831</v>
+      </c>
+      <c r="P41">
+        <v>1.00018372536167</v>
+      </c>
+      <c r="Q41">
+        <v>1.00018372536167</v>
+      </c>
+      <c r="R41">
+        <v>1.000068897446203</v>
+      </c>
+      <c r="S41">
+        <v>1.000068897446203</v>
+      </c>
+      <c r="T41">
+        <v>1.000024497185778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9997609498194534</v>
+      </c>
+      <c r="D42">
+        <v>1.000525906721476</v>
+      </c>
+      <c r="E42">
+        <v>0.999362538476139</v>
+      </c>
+      <c r="F42">
+        <v>0.9997609498194534</v>
+      </c>
+      <c r="G42">
+        <v>1.000956194298916</v>
+      </c>
+      <c r="H42">
+        <v>0.9997609498194534</v>
+      </c>
+      <c r="I42">
+        <v>1.000956194298916</v>
+      </c>
+      <c r="J42">
+        <v>0.9997609498194534</v>
+      </c>
+      <c r="K42">
+        <v>0.9997609498194534</v>
+      </c>
+      <c r="L42">
+        <v>0.9997609498194534</v>
+      </c>
+      <c r="M42">
+        <v>1.000358572059185</v>
+      </c>
+      <c r="N42">
+        <v>1.000358572059185</v>
+      </c>
+      <c r="O42">
+        <v>1.000414350279949</v>
+      </c>
+      <c r="P42">
+        <v>1.000159364645941</v>
+      </c>
+      <c r="Q42">
+        <v>1.000159364645941</v>
+      </c>
+      <c r="R42">
+        <v>1.000059760939319</v>
+      </c>
+      <c r="S42">
+        <v>1.000059760939319</v>
+      </c>
+      <c r="T42">
+        <v>1.000021248159149</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,22 +85,28 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -76,22 +115,13 @@
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000016338396526</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="D3">
-        <v>0.9999346473816181</v>
+        <v>0.9999936241919529</v>
       </c>
       <c r="E3">
-        <v>1.000016338396526</v>
+        <v>1.00000772897914</v>
       </c>
       <c r="F3">
-        <v>1.000016338396526</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="G3">
-        <v>1.000043567909944</v>
+        <v>0.9999884049616453</v>
       </c>
       <c r="H3">
-        <v>0.9999640576297211</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="I3">
-        <v>1.000016338396526</v>
+        <v>0.9999884049616453</v>
       </c>
       <c r="J3">
-        <v>0.9999346473816181</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="K3">
-        <v>1.000016338396526</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="L3">
-        <v>1.000016338396526</v>
+        <v>1.000002899690642</v>
       </c>
       <c r="M3">
-        <v>0.9999754928890721</v>
+        <v>0.9999956523261437</v>
       </c>
       <c r="N3">
-        <v>0.9999754928890721</v>
+        <v>0.9999956523261437</v>
       </c>
       <c r="O3">
-        <v>0.9999716811359551</v>
+        <v>0.9999949762814134</v>
       </c>
       <c r="P3">
-        <v>0.9999891080582234</v>
+        <v>0.9999980681143098</v>
       </c>
       <c r="Q3">
-        <v>0.9999891080582234</v>
+        <v>0.9999980681143098</v>
       </c>
       <c r="R3">
-        <v>0.9999959156427991</v>
+        <v>0.9999992760083929</v>
       </c>
       <c r="S3">
-        <v>0.9999959156427991</v>
+        <v>0.9999992760083929</v>
       </c>
       <c r="T3">
-        <v>0.999998548018477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999997428674442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000031539742068</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="D4">
-        <v>0.9998738379158184</v>
+        <v>1.001143632669177</v>
       </c>
       <c r="E4">
-        <v>1.000031539742068</v>
+        <v>0.9986137799594786</v>
       </c>
       <c r="F4">
-        <v>1.000031539742068</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="G4">
-        <v>1.000084107185589</v>
+        <v>1.002079327942958</v>
       </c>
       <c r="H4">
-        <v>0.9999306125977502</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="I4">
-        <v>1.000031539742068</v>
+        <v>1.002079327942958</v>
       </c>
       <c r="J4">
-        <v>0.9998738379158184</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="K4">
-        <v>1.000031539742068</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="L4">
-        <v>1.000031539742068</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="M4">
-        <v>0.9999526888289432</v>
+        <v>1.000779748222939</v>
       </c>
       <c r="N4">
-        <v>0.9999526888289432</v>
+        <v>1.000779748222939</v>
       </c>
       <c r="O4">
-        <v>0.9999453300852122</v>
+        <v>1.000901043038352</v>
       </c>
       <c r="P4">
-        <v>0.9999789724666514</v>
+        <v>1.000346554982932</v>
       </c>
       <c r="Q4">
-        <v>0.9999789724666514</v>
+        <v>1.000346554982932</v>
       </c>
       <c r="R4">
-        <v>0.9999921142855055</v>
+        <v>1.000129958362929</v>
       </c>
       <c r="S4">
-        <v>0.9999921142855055</v>
+        <v>1.000129958362929</v>
       </c>
       <c r="T4">
-        <v>0.999997196154227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.000046207680062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000060441175615</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="D5">
-        <v>0.9997582249966338</v>
+        <v>0.9996704890706049</v>
       </c>
       <c r="E5">
-        <v>1.000060441175615</v>
+        <v>1.000399408191643</v>
       </c>
       <c r="F5">
-        <v>1.000060441175615</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="G5">
-        <v>1.000161184662702</v>
+        <v>0.9994008862536017</v>
       </c>
       <c r="H5">
-        <v>0.9998670266168441</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="I5">
-        <v>1.000060441175615</v>
+        <v>0.9994008862536017</v>
       </c>
       <c r="J5">
-        <v>0.9997582249966338</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="K5">
-        <v>1.000060441175615</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="L5">
-        <v>1.000060441175615</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="M5">
-        <v>0.9999093330861244</v>
+        <v>0.9997753320965408</v>
       </c>
       <c r="N5">
-        <v>0.9999093330861244</v>
+        <v>0.9997753320965408</v>
       </c>
       <c r="O5">
-        <v>0.9998952309296977</v>
+        <v>0.9997403844212288</v>
       </c>
       <c r="P5">
-        <v>0.999959702449288</v>
+        <v>0.9999001473775205</v>
       </c>
       <c r="Q5">
-        <v>0.999959702449288</v>
+        <v>0.9999001473775205</v>
       </c>
       <c r="R5">
-        <v>0.9999848871308697</v>
+        <v>0.9999625550180103</v>
       </c>
       <c r="S5">
-        <v>0.9999848871308697</v>
+        <v>0.9999625550180103</v>
       </c>
       <c r="T5">
-        <v>0.9999946266338376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999866862223815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00008864396666</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="D6">
-        <v>0.9996454002629926</v>
+        <v>0.9987384331860405</v>
       </c>
       <c r="E6">
-        <v>1.00008864396666</v>
+        <v>1.001529175274666</v>
       </c>
       <c r="F6">
-        <v>1.00008864396666</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="G6">
-        <v>1.000236398302213</v>
+        <v>0.9977062363736353</v>
       </c>
       <c r="H6">
-        <v>0.9998049717797023</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="I6">
-        <v>1.00008864396666</v>
+        <v>0.9977062363736353</v>
       </c>
       <c r="J6">
-        <v>0.9996454002629926</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="K6">
-        <v>1.00008864396666</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="L6">
-        <v>1.00008864396666</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="M6">
-        <v>0.9998670221148264</v>
+        <v>0.9991398324447877</v>
       </c>
       <c r="N6">
-        <v>0.9998670221148264</v>
+        <v>0.9991398324447877</v>
       </c>
       <c r="O6">
-        <v>0.999846338669785</v>
+        <v>0.9990060326918719</v>
       </c>
       <c r="P6">
-        <v>0.9999408960654376</v>
+        <v>0.9996176978018384</v>
       </c>
       <c r="Q6">
-        <v>0.9999408960654376</v>
+        <v>0.9996176978018384</v>
       </c>
       <c r="R6">
-        <v>0.9999778330407432</v>
+        <v>0.9998566304803638</v>
       </c>
       <c r="S6">
-        <v>0.9999778330407432</v>
+        <v>0.9998566304803638</v>
       </c>
       <c r="T6">
-        <v>0.9999921170408146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9999490217303605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000001281691743</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="D7">
-        <v>0.9999948771579318</v>
+        <v>0.9999760003961758</v>
       </c>
       <c r="E7">
-        <v>1.000001281691743</v>
+        <v>1.000029091636075</v>
       </c>
       <c r="F7">
-        <v>1.000001281691743</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="G7">
-        <v>1.000003414213624</v>
+        <v>0.9999563618252687</v>
       </c>
       <c r="H7">
-        <v>0.9999971839206595</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="I7">
-        <v>1.000001281691743</v>
+        <v>0.9999563618252687</v>
       </c>
       <c r="J7">
-        <v>0.9999948771579318</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="K7">
-        <v>1.000001281691743</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="L7">
-        <v>1.000001281691743</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="M7">
-        <v>0.9999980794248375</v>
+        <v>0.9999836359087815</v>
       </c>
       <c r="N7">
-        <v>0.9999980794248375</v>
+        <v>0.9999836359087815</v>
       </c>
       <c r="O7">
-        <v>0.9999977809234449</v>
+        <v>0.9999810907379129</v>
       </c>
       <c r="P7">
-        <v>0.9999991468471393</v>
+        <v>0.9999927272699525</v>
       </c>
       <c r="Q7">
-        <v>0.9999991468471393</v>
+        <v>0.9999927272699525</v>
       </c>
       <c r="R7">
-        <v>0.9999996805582902</v>
+        <v>0.999997272950538</v>
       </c>
       <c r="S7">
-        <v>0.9999996805582902</v>
+        <v>0.999997272950538</v>
       </c>
       <c r="T7">
-        <v>0.9999998867279074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999990306390671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000002899690642</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="D8">
-        <v>0.9999884049616453</v>
+        <v>0.9999968575015092</v>
       </c>
       <c r="E8">
-        <v>1.000002899690642</v>
+        <v>1.000003810067097</v>
       </c>
       <c r="F8">
-        <v>1.000002899690642</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="G8">
-        <v>1.00000772897914</v>
+        <v>0.999994283592983</v>
       </c>
       <c r="H8">
-        <v>0.9999936241919529</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="I8">
-        <v>1.000002899690642</v>
+        <v>0.999994283592983</v>
       </c>
       <c r="J8">
-        <v>0.9999884049616453</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="K8">
-        <v>1.000002899690642</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="L8">
-        <v>1.000002899690642</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="M8">
-        <v>0.9999956523261437</v>
+        <v>0.9999978566671865</v>
       </c>
       <c r="N8">
-        <v>0.9999956523261437</v>
+        <v>0.9999978566671865</v>
       </c>
       <c r="O8">
-        <v>0.9999949762814134</v>
+        <v>0.9999975236119608</v>
       </c>
       <c r="P8">
-        <v>0.9999980681143098</v>
+        <v>0.9999990476919211</v>
       </c>
       <c r="Q8">
-        <v>0.9999980681143098</v>
+        <v>0.9999990476919211</v>
       </c>
       <c r="R8">
-        <v>0.9999992760083929</v>
+        <v>0.9999996432042884</v>
       </c>
       <c r="S8">
-        <v>0.9999992760083929</v>
+        <v>0.9999996432042884</v>
       </c>
       <c r="T8">
-        <v>0.9999997428674442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999998733976266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000004960130395</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="D9">
-        <v>0.9999801647846362</v>
+        <v>0.9999306125977502</v>
       </c>
       <c r="E9">
-        <v>1.000004960130395</v>
+        <v>1.000084107185589</v>
       </c>
       <c r="F9">
-        <v>1.000004960130395</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="G9">
-        <v>1.000013221860407</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="H9">
-        <v>0.9999890924653464</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="I9">
-        <v>1.000004960130395</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="J9">
-        <v>0.9999801647846362</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="K9">
-        <v>1.000004960130395</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="L9">
-        <v>1.000004960130395</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="M9">
-        <v>0.9999925624575157</v>
+        <v>0.9999526888289432</v>
       </c>
       <c r="N9">
-        <v>0.9999925624575157</v>
+        <v>0.9999526888289432</v>
       </c>
       <c r="O9">
-        <v>0.9999914057934592</v>
+        <v>0.9999453300852122</v>
       </c>
       <c r="P9">
-        <v>0.9999966950151421</v>
+        <v>0.9999789724666514</v>
       </c>
       <c r="Q9">
-        <v>0.9999966950151421</v>
+        <v>0.9999789724666514</v>
       </c>
       <c r="R9">
-        <v>0.9999987612939554</v>
+        <v>0.9999921142855055</v>
       </c>
       <c r="S9">
-        <v>0.9999987612939554</v>
+        <v>0.9999921142855055</v>
       </c>
       <c r="T9">
-        <v>0.999999559916929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.999997196154227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000009950724764</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="D10">
-        <v>0.99996020007389</v>
+        <v>0.9987196143159245</v>
       </c>
       <c r="E10">
-        <v>1.000009950724764</v>
+        <v>1.001551986416658</v>
       </c>
       <c r="F10">
-        <v>1.000009950724764</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="G10">
-        <v>1.000026532059462</v>
+        <v>0.9976720192982134</v>
       </c>
       <c r="H10">
-        <v>0.9999781122502857</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="I10">
-        <v>1.000009950724764</v>
+        <v>0.9976720192982134</v>
       </c>
       <c r="J10">
-        <v>0.99996020007389</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="K10">
-        <v>1.000009950724764</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="L10">
-        <v>1.000009950724764</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="M10">
-        <v>0.9999850753993267</v>
+        <v>0.9991270012177005</v>
       </c>
       <c r="N10">
-        <v>0.9999850753993267</v>
+        <v>0.9991270012177005</v>
       </c>
       <c r="O10">
-        <v>0.9999827543496463</v>
+        <v>0.9989912055837751</v>
       </c>
       <c r="P10">
-        <v>0.9999933671744724</v>
+        <v>0.9996119951908629</v>
       </c>
       <c r="Q10">
-        <v>0.9999933671744724</v>
+        <v>0.9996119951908629</v>
       </c>
       <c r="R10">
-        <v>0.9999975130620451</v>
+        <v>0.999854492177444</v>
       </c>
       <c r="S10">
-        <v>0.9999975130620451</v>
+        <v>0.999854492177444</v>
       </c>
       <c r="T10">
-        <v>0.9999991160929881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9999482615737266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000017947384466</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="D11">
-        <v>0.9999282168972887</v>
+        <v>1.001634022748303</v>
       </c>
       <c r="E11">
-        <v>1.000017947384466</v>
+        <v>0.9980193685611054</v>
       </c>
       <c r="F11">
-        <v>1.000017947384466</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="G11">
-        <v>1.000047852440248</v>
+        <v>1.002970945305816</v>
       </c>
       <c r="H11">
-        <v>0.9999605203613787</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="I11">
-        <v>1.000017947384466</v>
+        <v>1.002970945305816</v>
       </c>
       <c r="J11">
-        <v>0.9999282168972887</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="K11">
-        <v>1.000017947384466</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="L11">
-        <v>1.000017947384466</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="M11">
-        <v>0.9999730821408772</v>
+        <v>1.001114104715603</v>
       </c>
       <c r="N11">
-        <v>0.9999730821408772</v>
+        <v>1.001114104715603</v>
       </c>
       <c r="O11">
-        <v>0.9999688948810443</v>
+        <v>1.001287410726503</v>
       </c>
       <c r="P11">
-        <v>0.9999880372220734</v>
+        <v>1.000495157852199</v>
       </c>
       <c r="Q11">
-        <v>0.9999880372220734</v>
+        <v>1.000495157852199</v>
       </c>
       <c r="R11">
-        <v>0.9999955147626715</v>
+        <v>1.000185684420497</v>
       </c>
       <c r="S11">
-        <v>0.9999955147626715</v>
+        <v>1.000185684420497</v>
       </c>
       <c r="T11">
-        <v>0.9999984053087188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.000066021498566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000028097300705</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="D12">
-        <v>0.9998876122407555</v>
+        <v>0.9996792506736835</v>
       </c>
       <c r="E12">
-        <v>1.000028097300705</v>
+        <v>1.000388788463159</v>
       </c>
       <c r="F12">
-        <v>1.000028097300705</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="G12">
-        <v>1.000074918695383</v>
+        <v>0.9994168153578957</v>
       </c>
       <c r="H12">
-        <v>0.999938188232406</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="I12">
-        <v>1.000028097300705</v>
+        <v>0.9994168153578957</v>
       </c>
       <c r="J12">
-        <v>0.9998876122407555</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="K12">
-        <v>1.000028097300705</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="L12">
-        <v>1.000028097300705</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="M12">
-        <v>0.9999578547707304</v>
+        <v>0.999781305747369</v>
       </c>
       <c r="N12">
-        <v>0.9999578547707304</v>
+        <v>0.999781305747369</v>
       </c>
       <c r="O12">
-        <v>0.9999512992579556</v>
+        <v>0.9997472873894738</v>
       </c>
       <c r="P12">
-        <v>0.9999812689473887</v>
+        <v>0.99990280254386</v>
       </c>
       <c r="Q12">
-        <v>0.9999812689473887</v>
+        <v>0.99990280254386</v>
       </c>
       <c r="R12">
-        <v>0.9999929760357178</v>
+        <v>0.9999635509421057</v>
       </c>
       <c r="S12">
-        <v>0.9999929760357178</v>
+        <v>0.9999635509421057</v>
       </c>
       <c r="T12">
-        <v>0.9999975018451099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999870404842109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000007626290974</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="D13">
-        <v>0.999969510855254</v>
+        <v>1.000251822810245</v>
       </c>
       <c r="E13">
-        <v>1.000007626290974</v>
+        <v>0.9996947622597689</v>
       </c>
       <c r="F13">
-        <v>1.000007626290974</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="G13">
-        <v>1.000020322947069</v>
+        <v>1.000457854557282</v>
       </c>
       <c r="H13">
-        <v>0.9999832304387672</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="I13">
-        <v>1.000007626290974</v>
+        <v>1.000457854557282</v>
       </c>
       <c r="J13">
-        <v>0.999969510855254</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="K13">
-        <v>1.000007626290974</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="L13">
-        <v>1.000007626290974</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="M13">
-        <v>0.9999885685731138</v>
+        <v>1.000171696157238</v>
       </c>
       <c r="N13">
-        <v>0.9999885685731138</v>
+        <v>1.000171696157238</v>
       </c>
       <c r="O13">
-        <v>0.9999867891949984</v>
+        <v>1.000198405041574</v>
       </c>
       <c r="P13">
-        <v>0.9999949211457336</v>
+        <v>1.000076310023891</v>
       </c>
       <c r="Q13">
-        <v>0.9999949211457336</v>
+        <v>1.000076310023891</v>
       </c>
       <c r="R13">
-        <v>0.9999980974320437</v>
+        <v>1.000028616957217</v>
       </c>
       <c r="S13">
-        <v>0.9999980974320437</v>
+        <v>1.000028616957217</v>
       </c>
       <c r="T13">
-        <v>0.999999323852335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000010175483147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002089797253162</v>
+        <v>1.0010055</v>
       </c>
       <c r="D14">
-        <v>0.9916408172691078</v>
+        <v>0.9977878500000004</v>
       </c>
       <c r="E14">
-        <v>1.002089797253162</v>
+        <v>1.0026814</v>
       </c>
       <c r="F14">
-        <v>1.002089797253162</v>
+        <v>1.0010055</v>
       </c>
       <c r="G14">
-        <v>1.005572790015801</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H14">
-        <v>0.9954024506878769</v>
+        <v>1.0010055</v>
       </c>
       <c r="I14">
-        <v>1.002089797253162</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J14">
-        <v>0.9916408172691078</v>
+        <v>1.0010055</v>
       </c>
       <c r="K14">
-        <v>1.002089797253162</v>
+        <v>1.0010055</v>
       </c>
       <c r="L14">
-        <v>1.002089797253162</v>
+        <v>1.0010055</v>
       </c>
       <c r="M14">
-        <v>0.9968653072611348</v>
+        <v>0.9984917</v>
       </c>
       <c r="N14">
-        <v>0.9968653072611348</v>
+        <v>0.9984917</v>
       </c>
       <c r="O14">
-        <v>0.9963776884033821</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P14">
-        <v>0.9986068039251438</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q14">
-        <v>0.9986068039251438</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R14">
-        <v>0.9994775522571482</v>
+        <v>0.9997486</v>
       </c>
       <c r="S14">
-        <v>0.9994775522571482</v>
+        <v>0.9997486</v>
       </c>
       <c r="T14">
-        <v>0.9998142416220452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000561146984666</v>
+        <v>1.0010055</v>
       </c>
       <c r="D15">
-        <v>0.9977554399469895</v>
+        <v>0.99778785</v>
       </c>
       <c r="E15">
-        <v>1.000561146984666</v>
+        <v>1.0026814</v>
       </c>
       <c r="F15">
-        <v>1.000561146984666</v>
+        <v>1.0010055</v>
       </c>
       <c r="G15">
-        <v>1.001496364492529</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H15">
-        <v>0.9987654929139987</v>
+        <v>1.0010055</v>
       </c>
       <c r="I15">
-        <v>1.000561146984666</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J15">
-        <v>0.9977554399469895</v>
+        <v>1.0010055</v>
       </c>
       <c r="K15">
-        <v>1.000561146984666</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>1.000561146984666</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>0.9991582934658279</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>0.9991582934658279</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>0.9990273599485514</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>0.9996259113054405</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>0.9996259113054405</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>0.9998597202252471</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>0.9998597202252471</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>0.9999501230512525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000068748989</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D16">
-        <v>0.9999997290767715</v>
+        <v>1.0088486</v>
       </c>
       <c r="E16">
-        <v>1.000000068748989</v>
+        <v>0.98927441</v>
       </c>
       <c r="F16">
-        <v>1.000000068748989</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G16">
-        <v>1.000000179676352</v>
+        <v>1.0160884</v>
       </c>
       <c r="H16">
-        <v>0.9999998524974475</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="I16">
-        <v>1.000000068748989</v>
+        <v>1.0160884</v>
       </c>
       <c r="J16">
-        <v>0.9999997290767715</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K16">
-        <v>1.000000068748989</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="L16">
-        <v>1.000000068748989</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M16">
-        <v>0.9999998989128803</v>
+        <v>1.00603315</v>
       </c>
       <c r="N16">
-        <v>0.9999998989128803</v>
+        <v>1.00603315</v>
       </c>
       <c r="O16">
-        <v>0.9999998834410694</v>
+        <v>1.006971633333333</v>
       </c>
       <c r="P16">
-        <v>0.9999999555249165</v>
+        <v>1.0026814</v>
       </c>
       <c r="Q16">
-        <v>0.9999999555249165</v>
+        <v>1.0026814</v>
       </c>
       <c r="R16">
-        <v>0.9999999838309347</v>
+        <v>1.001005525</v>
       </c>
       <c r="S16">
-        <v>0.9999999838309347</v>
+        <v>1.001005525</v>
       </c>
       <c r="T16">
-        <v>0.9999999945829231</v>
+        <v>1.000357518333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00000142974139</v>
+        <v>1.0000628</v>
       </c>
       <c r="D17">
-        <v>0.999994283592983</v>
+        <v>0.9998617400000001</v>
       </c>
       <c r="E17">
-        <v>1.00000142974139</v>
+        <v>1.0001676</v>
       </c>
       <c r="F17">
-        <v>1.00000142974139</v>
+        <v>1.0000628</v>
       </c>
       <c r="G17">
-        <v>1.000003810067097</v>
+        <v>0.99974862</v>
       </c>
       <c r="H17">
-        <v>0.9999968575015091</v>
+        <v>1.0000628</v>
       </c>
       <c r="I17">
-        <v>1.00000142974139</v>
+        <v>0.99974862</v>
       </c>
       <c r="J17">
-        <v>0.999994283592983</v>
+        <v>1.0000628</v>
       </c>
       <c r="K17">
-        <v>1.00000142974139</v>
+        <v>1.0000628</v>
       </c>
       <c r="L17">
-        <v>1.00000142974139</v>
+        <v>1.0000628</v>
       </c>
       <c r="M17">
-        <v>0.9999978566671865</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="N17">
-        <v>0.9999978566671865</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="O17">
-        <v>0.9999975236119608</v>
+        <v>0.9998910533333333</v>
       </c>
       <c r="P17">
-        <v>0.9999990476919211</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="Q17">
-        <v>0.9999990476919211</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="R17">
-        <v>0.9999996432042884</v>
+        <v>0.999984255</v>
       </c>
       <c r="S17">
-        <v>0.9999996432042884</v>
+        <v>0.999984255</v>
       </c>
       <c r="T17">
-        <v>0.9999998733976266</v>
+        <v>0.9999943933333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000005027433818</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="D18">
-        <v>0.9999798803156478</v>
+        <v>0.9991515034246576</v>
       </c>
       <c r="E18">
-        <v>1.000005027433818</v>
+        <v>1.001028487397261</v>
       </c>
       <c r="F18">
-        <v>1.000005027433818</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="G18">
-        <v>1.000013414743481</v>
+        <v>0.9984572704109588</v>
       </c>
       <c r="H18">
-        <v>0.9999889348666909</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="I18">
-        <v>1.000005027433818</v>
+        <v>0.9984572704109588</v>
       </c>
       <c r="J18">
-        <v>0.9999798803156478</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="K18">
-        <v>1.000005027433818</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="L18">
-        <v>1.000005027433818</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="M18">
-        <v>0.9999924538747331</v>
+        <v>0.9994214715068492</v>
       </c>
       <c r="N18">
-        <v>0.9999924538747331</v>
+        <v>0.9994214715068492</v>
       </c>
       <c r="O18">
-        <v>0.9999912808720524</v>
+        <v>0.9993314821461187</v>
       </c>
       <c r="P18">
-        <v>0.999996645061095</v>
+        <v>0.9997428718721461</v>
       </c>
       <c r="Q18">
-        <v>0.999996645061095</v>
+        <v>0.9997428718721461</v>
       </c>
       <c r="R18">
-        <v>0.9999987406542759</v>
+        <v>0.9999035720547945</v>
       </c>
       <c r="S18">
-        <v>0.9999987406542759</v>
+        <v>0.9999035720547945</v>
       </c>
       <c r="T18">
-        <v>0.9999995520378793</v>
+        <v>0.9999657131735159</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000011784194715</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="D19">
-        <v>0.9999528592053134</v>
+        <v>0.9993887473684213</v>
       </c>
       <c r="E19">
-        <v>1.000011784194715</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="F19">
-        <v>1.000011784194715</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G19">
-        <v>1.000031427864921</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="H19">
-        <v>0.9999740771842739</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="I19">
-        <v>1.000011784194715</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="J19">
-        <v>0.9999528592053134</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="K19">
-        <v>1.000011784194715</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="L19">
-        <v>1.000011784194715</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="M19">
-        <v>0.9999823217000141</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="N19">
-        <v>0.9999823217000141</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="O19">
-        <v>0.9999795735281007</v>
+        <v>0.9995184019298247</v>
       </c>
       <c r="P19">
-        <v>0.999992142531581</v>
+        <v>0.9998147642105262</v>
       </c>
       <c r="Q19">
-        <v>0.999992142531581</v>
+        <v>0.9998147642105262</v>
       </c>
       <c r="R19">
-        <v>0.9999970529473645</v>
+        <v>0.9999305317105261</v>
       </c>
       <c r="S19">
-        <v>0.9999970529473645</v>
+        <v>0.9999305317105261</v>
       </c>
       <c r="T19">
-        <v>0.9999989528064422</v>
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="D20">
+        <v>1.003027150526316</v>
+      </c>
+      <c r="E20">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="F20">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="G20">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="H20">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="I20">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="J20">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="K20">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="L20">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="M20">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="N20">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="O20">
+        <v>1.002385029824561</v>
+      </c>
+      <c r="P20">
+        <v>1.00091731754386</v>
+      </c>
+      <c r="Q20">
+        <v>1.00091731754386</v>
+      </c>
+      <c r="R20">
+        <v>1.000343991578947</v>
+      </c>
+      <c r="S20">
+        <v>1.000343991578947</v>
+      </c>
+      <c r="T20">
+        <v>1.000122305877193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="D21">
+        <v>0.9954024506878769</v>
+      </c>
+      <c r="E21">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="F21">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="G21">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="H21">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="I21">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="J21">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="K21">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="L21">
+        <v>1.002089797253162</v>
+      </c>
+      <c r="M21">
+        <v>0.9968653072611348</v>
+      </c>
+      <c r="N21">
+        <v>0.9968653072611348</v>
+      </c>
+      <c r="O21">
+        <v>0.9963776884033821</v>
+      </c>
+      <c r="P21">
+        <v>0.9986068039251438</v>
+      </c>
+      <c r="Q21">
+        <v>0.9986068039251438</v>
+      </c>
+      <c r="R21">
+        <v>0.9994775522571482</v>
+      </c>
+      <c r="S21">
+        <v>0.9994775522571482</v>
+      </c>
+      <c r="T21">
+        <v>0.9998142416220452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="D22">
+        <v>0.9987654929139987</v>
+      </c>
+      <c r="E22">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="F22">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="G22">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="H22">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="I22">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="J22">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="K22">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="L22">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="M22">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="N22">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="O22">
+        <v>0.9990273599485514</v>
+      </c>
+      <c r="P22">
+        <v>0.9996259113054405</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996259113054405</v>
+      </c>
+      <c r="R22">
+        <v>0.9998597202252471</v>
+      </c>
+      <c r="S22">
+        <v>0.9998597202252471</v>
+      </c>
+      <c r="T22">
+        <v>0.9999501230512525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="D23">
+        <v>0.999938188232406</v>
+      </c>
+      <c r="E23">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="F23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="G23">
+        <v>0.9998876122407555</v>
+      </c>
+      <c r="H23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="I23">
+        <v>0.9998876122407555</v>
+      </c>
+      <c r="J23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="K23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="L23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="M23">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="N23">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="O23">
+        <v>0.9999512992579556</v>
+      </c>
+      <c r="P23">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="R23">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="S23">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="T23">
+        <v>0.9999975018451099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="D24">
+        <v>0.9999832304387672</v>
+      </c>
+      <c r="E24">
+        <v>1.000020322947069</v>
+      </c>
+      <c r="F24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G24">
+        <v>0.999969510855254</v>
+      </c>
+      <c r="H24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="I24">
+        <v>0.999969510855254</v>
+      </c>
+      <c r="J24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="K24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="L24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="M24">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="N24">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="O24">
+        <v>0.9999867891949984</v>
+      </c>
+      <c r="P24">
+        <v>0.9999949211457336</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999949211457336</v>
+      </c>
+      <c r="R24">
+        <v>0.9999980974320437</v>
+      </c>
+      <c r="S24">
+        <v>0.9999980974320437</v>
+      </c>
+      <c r="T24">
+        <v>0.999999323852335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="D25">
+        <v>1.005880777237486</v>
+      </c>
+      <c r="E25">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="F25">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="G25">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="H25">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="I25">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="J25">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="K25">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="L25">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="M25">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="N25">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="O25">
+        <v>1.004633336664753</v>
+      </c>
+      <c r="P25">
+        <v>1.001782053123232</v>
+      </c>
+      <c r="Q25">
+        <v>1.001782053123232</v>
+      </c>
+      <c r="R25">
+        <v>1.000668271495655</v>
+      </c>
+      <c r="S25">
+        <v>1.000668271495655</v>
+      </c>
+      <c r="T25">
+        <v>1.000237610837331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="D26">
+        <v>1.001567436407662</v>
+      </c>
+      <c r="E26">
+        <v>0.998100076613526</v>
+      </c>
+      <c r="F26">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="G26">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="H26">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="I26">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="J26">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="K26">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="L26">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="M26">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="N26">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="O26">
+        <v>1.001234949448854</v>
+      </c>
+      <c r="P26">
+        <v>1.000474980184761</v>
+      </c>
+      <c r="Q26">
+        <v>1.000474980184761</v>
+      </c>
+      <c r="R26">
+        <v>1.000178117292416</v>
+      </c>
+      <c r="S26">
+        <v>1.000178117292416</v>
+      </c>
+      <c r="T26">
+        <v>1.000063330365142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="D27">
+        <v>0.9998681530605863</v>
+      </c>
+      <c r="E27">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="F27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="G27">
+        <v>0.9997602857650838</v>
+      </c>
+      <c r="H27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="I27">
+        <v>0.9997602857650838</v>
+      </c>
+      <c r="J27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="K27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="L27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="M27">
+        <v>0.9999101034471696</v>
+      </c>
+      <c r="N27">
+        <v>0.9999101034471696</v>
+      </c>
+      <c r="O27">
+        <v>0.9998961199849751</v>
+      </c>
+      <c r="P27">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="R27">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="S27">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="T27">
+        <v>0.9999946706190098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="D28">
+        <v>1.00043188218352</v>
+      </c>
+      <c r="E28">
+        <v>0.9994765195477021</v>
+      </c>
+      <c r="F28">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="G28">
+        <v>1.000785231709567</v>
+      </c>
+      <c r="H28">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="I28">
+        <v>1.000785231709567</v>
+      </c>
+      <c r="J28">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="K28">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="L28">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="M28">
+        <v>1.000294460720075</v>
+      </c>
+      <c r="N28">
+        <v>1.000294460720075</v>
+      </c>
+      <c r="O28">
+        <v>1.000340267874557</v>
+      </c>
+      <c r="P28">
+        <v>1.000130870390245</v>
+      </c>
+      <c r="Q28">
+        <v>1.000130870390245</v>
+      </c>
+      <c r="R28">
+        <v>1.00004907522533</v>
+      </c>
+      <c r="S28">
+        <v>1.00004907522533</v>
+      </c>
+      <c r="T28">
+        <v>1.000017450438757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.999643680642808</v>
+      </c>
+      <c r="D29">
+        <v>1.000783897957676</v>
+      </c>
+      <c r="E29">
+        <v>0.9990498341414835</v>
+      </c>
+      <c r="F29">
+        <v>0.999643680642808</v>
+      </c>
+      <c r="G29">
+        <v>1.001425267626205</v>
+      </c>
+      <c r="H29">
+        <v>0.999643680642808</v>
+      </c>
+      <c r="I29">
+        <v>1.001425267626205</v>
+      </c>
+      <c r="J29">
+        <v>0.999643680642808</v>
+      </c>
+      <c r="K29">
+        <v>0.999643680642808</v>
+      </c>
+      <c r="L29">
+        <v>0.999643680642808</v>
+      </c>
+      <c r="M29">
+        <v>1.000534474134506</v>
+      </c>
+      <c r="N29">
+        <v>1.000534474134506</v>
+      </c>
+      <c r="O29">
+        <v>1.000617615408896</v>
+      </c>
+      <c r="P29">
+        <v>1.000237542970607</v>
+      </c>
+      <c r="Q29">
+        <v>1.000237542970607</v>
+      </c>
+      <c r="R29">
+        <v>1.000089077388657</v>
+      </c>
+      <c r="S29">
+        <v>1.000089077388657</v>
+      </c>
+      <c r="T29">
+        <v>1.000031673608965</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9994801685029199</v>
+        <v>1.000138409515635</v>
       </c>
       <c r="D4">
-        <v>1.001143632669177</v>
+        <v>0.9996955018705075</v>
       </c>
       <c r="E4">
-        <v>0.9986137799594786</v>
+        <v>1.000369089441394</v>
       </c>
       <c r="F4">
-        <v>0.9994801685029199</v>
+        <v>1.000138409515635</v>
       </c>
       <c r="G4">
-        <v>1.002079327942958</v>
+        <v>0.9994463640616462</v>
       </c>
       <c r="H4">
-        <v>0.9994801685029199</v>
+        <v>1.000138409515635</v>
       </c>
       <c r="I4">
-        <v>1.002079327942958</v>
+        <v>0.9994463640616462</v>
       </c>
       <c r="J4">
-        <v>0.9994801685029199</v>
+        <v>1.000138409515635</v>
       </c>
       <c r="K4">
-        <v>0.9994801685029199</v>
+        <v>1.000138409515635</v>
       </c>
       <c r="L4">
-        <v>0.9994801685029199</v>
+        <v>1.000138409515635</v>
       </c>
       <c r="M4">
-        <v>1.000779748222939</v>
+        <v>0.9997923867886407</v>
       </c>
       <c r="N4">
-        <v>1.000779748222939</v>
+        <v>0.9997923867886407</v>
       </c>
       <c r="O4">
-        <v>1.000901043038352</v>
+        <v>0.9997600918159296</v>
       </c>
       <c r="P4">
-        <v>1.000346554982932</v>
+        <v>0.9999077276976388</v>
       </c>
       <c r="Q4">
-        <v>1.000346554982932</v>
+        <v>0.9999077276976388</v>
       </c>
       <c r="R4">
-        <v>1.000129958362929</v>
+        <v>0.9999653981521379</v>
       </c>
       <c r="S4">
-        <v>1.000129958362929</v>
+        <v>0.9999653981521379</v>
       </c>
       <c r="T4">
-        <v>1.000046207680062</v>
+        <v>0.9999876973200754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00014977793948</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="D5">
-        <v>0.9996704890706049</v>
+        <v>1.003568425353362</v>
       </c>
       <c r="E5">
-        <v>1.000399408191643</v>
+        <v>0.9956746270526025</v>
       </c>
       <c r="F5">
-        <v>1.00014977793948</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="G5">
-        <v>0.9994008862536017</v>
+        <v>1.006488063603119</v>
       </c>
       <c r="H5">
-        <v>1.00014977793948</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="I5">
-        <v>0.9994008862536017</v>
+        <v>1.006488063603119</v>
       </c>
       <c r="J5">
-        <v>1.00014977793948</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="K5">
-        <v>1.00014977793948</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="L5">
-        <v>1.00014977793948</v>
+        <v>0.9983779811192789</v>
       </c>
       <c r="M5">
-        <v>0.9997753320965408</v>
+        <v>1.002433022361199</v>
       </c>
       <c r="N5">
-        <v>0.9997753320965408</v>
+        <v>1.002433022361199</v>
       </c>
       <c r="O5">
-        <v>0.9997403844212288</v>
+        <v>1.002811490025253</v>
       </c>
       <c r="P5">
-        <v>0.9999001473775205</v>
+        <v>1.001081341947226</v>
       </c>
       <c r="Q5">
-        <v>0.9999001473775205</v>
+        <v>1.001081341947226</v>
       </c>
       <c r="R5">
-        <v>0.9999625550180103</v>
+        <v>1.000405501740239</v>
       </c>
       <c r="S5">
-        <v>0.9999625550180103</v>
+        <v>1.000405501740239</v>
       </c>
       <c r="T5">
-        <v>0.9999866862223815</v>
+        <v>1.000144176561153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00057342851594</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="D6">
-        <v>0.9987384331860405</v>
+        <v>1.001143632669177</v>
       </c>
       <c r="E6">
-        <v>1.001529175274666</v>
+        <v>0.9986137799594786</v>
       </c>
       <c r="F6">
-        <v>1.00057342851594</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="G6">
-        <v>0.9977062363736353</v>
+        <v>1.002079327942958</v>
       </c>
       <c r="H6">
-        <v>1.00057342851594</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="I6">
-        <v>0.9977062363736353</v>
+        <v>1.002079327942958</v>
       </c>
       <c r="J6">
-        <v>1.00057342851594</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="K6">
-        <v>1.00057342851594</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="L6">
-        <v>1.00057342851594</v>
+        <v>0.9994801685029199</v>
       </c>
       <c r="M6">
-        <v>0.9991398324447877</v>
+        <v>1.000779748222939</v>
       </c>
       <c r="N6">
-        <v>0.9991398324447877</v>
+        <v>1.000779748222939</v>
       </c>
       <c r="O6">
-        <v>0.9990060326918719</v>
+        <v>1.000901043038352</v>
       </c>
       <c r="P6">
-        <v>0.9996176978018384</v>
+        <v>1.000346554982932</v>
       </c>
       <c r="Q6">
-        <v>0.9996176978018384</v>
+        <v>1.000346554982932</v>
       </c>
       <c r="R6">
-        <v>0.9998566304803638</v>
+        <v>1.000129958362929</v>
       </c>
       <c r="S6">
-        <v>0.9998566304803638</v>
+        <v>1.000129958362929</v>
       </c>
       <c r="T6">
-        <v>0.9999490217303605</v>
+        <v>1.000046207680062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000010909992294</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="D7">
-        <v>0.9999760003961758</v>
+        <v>0.9996704890706049</v>
       </c>
       <c r="E7">
-        <v>1.000029091636075</v>
+        <v>1.000399408191643</v>
       </c>
       <c r="F7">
-        <v>1.000010909992294</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="G7">
-        <v>0.9999563618252687</v>
+        <v>0.9994008862536017</v>
       </c>
       <c r="H7">
-        <v>1.000010909992294</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="I7">
-        <v>0.9999563618252687</v>
+        <v>0.9994008862536017</v>
       </c>
       <c r="J7">
-        <v>1.000010909992294</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="K7">
-        <v>1.000010909992294</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="L7">
-        <v>1.000010909992294</v>
+        <v>1.00014977793948</v>
       </c>
       <c r="M7">
-        <v>0.9999836359087815</v>
+        <v>0.9997753320965408</v>
       </c>
       <c r="N7">
-        <v>0.9999836359087815</v>
+        <v>0.9997753320965408</v>
       </c>
       <c r="O7">
-        <v>0.9999810907379129</v>
+        <v>0.9997403844212288</v>
       </c>
       <c r="P7">
-        <v>0.9999927272699525</v>
+        <v>0.9999001473775205</v>
       </c>
       <c r="Q7">
-        <v>0.9999927272699525</v>
+        <v>0.9999001473775205</v>
       </c>
       <c r="R7">
-        <v>0.999997272950538</v>
+        <v>0.9999625550180103</v>
       </c>
       <c r="S7">
-        <v>0.999997272950538</v>
+        <v>0.9999625550180103</v>
       </c>
       <c r="T7">
-        <v>0.9999990306390671</v>
+        <v>0.9999866862223815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000142974139</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="D8">
-        <v>0.9999968575015092</v>
+        <v>0.9987384331860405</v>
       </c>
       <c r="E8">
-        <v>1.000003810067097</v>
+        <v>1.001529175274666</v>
       </c>
       <c r="F8">
-        <v>1.00000142974139</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="G8">
-        <v>0.999994283592983</v>
+        <v>0.9977062363736353</v>
       </c>
       <c r="H8">
-        <v>1.00000142974139</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="I8">
-        <v>0.999994283592983</v>
+        <v>0.9977062363736353</v>
       </c>
       <c r="J8">
-        <v>1.00000142974139</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="K8">
-        <v>1.00000142974139</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="L8">
-        <v>1.00000142974139</v>
+        <v>1.00057342851594</v>
       </c>
       <c r="M8">
-        <v>0.9999978566671865</v>
+        <v>0.9991398324447877</v>
       </c>
       <c r="N8">
-        <v>0.9999978566671865</v>
+        <v>0.9991398324447877</v>
       </c>
       <c r="O8">
-        <v>0.9999975236119608</v>
+        <v>0.9990060326918719</v>
       </c>
       <c r="P8">
-        <v>0.9999990476919211</v>
+        <v>0.9996176978018384</v>
       </c>
       <c r="Q8">
-        <v>0.9999990476919211</v>
+        <v>0.9996176978018384</v>
       </c>
       <c r="R8">
-        <v>0.9999996432042884</v>
+        <v>0.9998566304803638</v>
       </c>
       <c r="S8">
-        <v>0.9999996432042884</v>
+        <v>0.9998566304803638</v>
       </c>
       <c r="T8">
-        <v>0.9999998733976266</v>
+        <v>0.9999490217303605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000031539742068</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="D9">
-        <v>0.9999306125977502</v>
+        <v>0.9999760003961758</v>
       </c>
       <c r="E9">
-        <v>1.000084107185589</v>
+        <v>1.000029091636075</v>
       </c>
       <c r="F9">
-        <v>1.000031539742068</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="G9">
-        <v>0.9998738379158184</v>
+        <v>0.9999563618252687</v>
       </c>
       <c r="H9">
-        <v>1.000031539742068</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="I9">
-        <v>0.9998738379158184</v>
+        <v>0.9999563618252687</v>
       </c>
       <c r="J9">
-        <v>1.000031539742068</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="K9">
-        <v>1.000031539742068</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="L9">
-        <v>1.000031539742068</v>
+        <v>1.000010909992294</v>
       </c>
       <c r="M9">
-        <v>0.9999526888289432</v>
+        <v>0.9999836359087815</v>
       </c>
       <c r="N9">
-        <v>0.9999526888289432</v>
+        <v>0.9999836359087815</v>
       </c>
       <c r="O9">
-        <v>0.9999453300852122</v>
+        <v>0.9999810907379129</v>
       </c>
       <c r="P9">
-        <v>0.9999789724666514</v>
+        <v>0.9999927272699525</v>
       </c>
       <c r="Q9">
-        <v>0.9999789724666514</v>
+        <v>0.9999927272699525</v>
       </c>
       <c r="R9">
-        <v>0.9999921142855055</v>
+        <v>0.999997272950538</v>
       </c>
       <c r="S9">
-        <v>0.9999921142855055</v>
+        <v>0.999997272950538</v>
       </c>
       <c r="T9">
-        <v>0.999997196154227</v>
+        <v>0.9999990306390671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000581983137188</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="D10">
-        <v>0.9987196143159245</v>
+        <v>0.9999968575015092</v>
       </c>
       <c r="E10">
-        <v>1.001551986416658</v>
+        <v>1.000003810067097</v>
       </c>
       <c r="F10">
-        <v>1.000581983137188</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="G10">
-        <v>0.9976720192982134</v>
+        <v>0.999994283592983</v>
       </c>
       <c r="H10">
-        <v>1.000581983137188</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="I10">
-        <v>0.9976720192982134</v>
+        <v>0.999994283592983</v>
       </c>
       <c r="J10">
-        <v>1.000581983137188</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="K10">
-        <v>1.000581983137188</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="L10">
-        <v>1.000581983137188</v>
+        <v>1.00000142974139</v>
       </c>
       <c r="M10">
-        <v>0.9991270012177005</v>
+        <v>0.9999978566671865</v>
       </c>
       <c r="N10">
-        <v>0.9991270012177005</v>
+        <v>0.9999978566671865</v>
       </c>
       <c r="O10">
-        <v>0.9989912055837751</v>
+        <v>0.9999975236119608</v>
       </c>
       <c r="P10">
-        <v>0.9996119951908629</v>
+        <v>0.9999990476919211</v>
       </c>
       <c r="Q10">
-        <v>0.9996119951908629</v>
+        <v>0.9999990476919211</v>
       </c>
       <c r="R10">
-        <v>0.999854492177444</v>
+        <v>0.9999996432042884</v>
       </c>
       <c r="S10">
-        <v>0.999854492177444</v>
+        <v>0.9999996432042884</v>
       </c>
       <c r="T10">
-        <v>0.9999482615737266</v>
+        <v>0.9999998733976266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9992572641253908</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="D11">
-        <v>1.001634022748303</v>
+        <v>0.9999306125977502</v>
       </c>
       <c r="E11">
-        <v>0.9980193685611054</v>
+        <v>1.000084107185589</v>
       </c>
       <c r="F11">
-        <v>0.9992572641253908</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="G11">
-        <v>1.002970945305816</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="H11">
-        <v>0.9992572641253908</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="I11">
-        <v>1.002970945305816</v>
+        <v>0.9998738379158184</v>
       </c>
       <c r="J11">
-        <v>0.9992572641253908</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="K11">
-        <v>0.9992572641253908</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="L11">
-        <v>0.9992572641253908</v>
+        <v>1.000031539742068</v>
       </c>
       <c r="M11">
-        <v>1.001114104715603</v>
+        <v>0.9999526888289432</v>
       </c>
       <c r="N11">
-        <v>1.001114104715603</v>
+        <v>0.9999526888289432</v>
       </c>
       <c r="O11">
-        <v>1.001287410726503</v>
+        <v>0.9999453300852122</v>
       </c>
       <c r="P11">
-        <v>1.000495157852199</v>
+        <v>0.9999789724666514</v>
       </c>
       <c r="Q11">
-        <v>1.000495157852199</v>
+        <v>0.9999789724666514</v>
       </c>
       <c r="R11">
-        <v>1.000185684420497</v>
+        <v>0.9999921142855055</v>
       </c>
       <c r="S11">
-        <v>1.000185684420497</v>
+        <v>0.9999921142855055</v>
       </c>
       <c r="T11">
-        <v>1.000066021498566</v>
+        <v>0.999997196154227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000145796136842</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="D12">
-        <v>0.9996792506736835</v>
+        <v>0.9987196143159245</v>
       </c>
       <c r="E12">
-        <v>1.000388788463159</v>
+        <v>1.001551986416658</v>
       </c>
       <c r="F12">
-        <v>1.000145796136842</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="G12">
-        <v>0.9994168153578957</v>
+        <v>0.9976720192982134</v>
       </c>
       <c r="H12">
-        <v>1.000145796136842</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="I12">
-        <v>0.9994168153578957</v>
+        <v>0.9976720192982134</v>
       </c>
       <c r="J12">
-        <v>1.000145796136842</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="K12">
-        <v>1.000145796136842</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="L12">
-        <v>1.000145796136842</v>
+        <v>1.000581983137188</v>
       </c>
       <c r="M12">
-        <v>0.999781305747369</v>
+        <v>0.9991270012177005</v>
       </c>
       <c r="N12">
-        <v>0.999781305747369</v>
+        <v>0.9991270012177005</v>
       </c>
       <c r="O12">
-        <v>0.9997472873894738</v>
+        <v>0.9989912055837751</v>
       </c>
       <c r="P12">
-        <v>0.99990280254386</v>
+        <v>0.9996119951908629</v>
       </c>
       <c r="Q12">
-        <v>0.99990280254386</v>
+        <v>0.9996119951908629</v>
       </c>
       <c r="R12">
-        <v>0.9999635509421057</v>
+        <v>0.999854492177444</v>
       </c>
       <c r="S12">
-        <v>0.9999635509421057</v>
+        <v>0.999854492177444</v>
       </c>
       <c r="T12">
-        <v>0.9999870404842109</v>
+        <v>0.9999482615737266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998855377571947</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="D13">
-        <v>1.000251822810245</v>
+        <v>1.001634022748303</v>
       </c>
       <c r="E13">
-        <v>0.9996947622597689</v>
+        <v>0.9980193685611054</v>
       </c>
       <c r="F13">
-        <v>0.9998855377571947</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="G13">
-        <v>1.000457854557282</v>
+        <v>1.002970945305816</v>
       </c>
       <c r="H13">
-        <v>0.9998855377571947</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="I13">
-        <v>1.000457854557282</v>
+        <v>1.002970945305816</v>
       </c>
       <c r="J13">
-        <v>0.9998855377571947</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="K13">
-        <v>0.9998855377571947</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="L13">
-        <v>0.9998855377571947</v>
+        <v>0.9992572641253908</v>
       </c>
       <c r="M13">
-        <v>1.000171696157238</v>
+        <v>1.001114104715603</v>
       </c>
       <c r="N13">
-        <v>1.000171696157238</v>
+        <v>1.001114104715603</v>
       </c>
       <c r="O13">
-        <v>1.000198405041574</v>
+        <v>1.001287410726503</v>
       </c>
       <c r="P13">
-        <v>1.000076310023891</v>
+        <v>1.000495157852199</v>
       </c>
       <c r="Q13">
-        <v>1.000076310023891</v>
+        <v>1.000495157852199</v>
       </c>
       <c r="R13">
-        <v>1.000028616957217</v>
+        <v>1.000185684420497</v>
       </c>
       <c r="S13">
-        <v>1.000028616957217</v>
+        <v>1.000185684420497</v>
       </c>
       <c r="T13">
-        <v>1.000010175483147</v>
+        <v>1.000066021498566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0010055</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="D14">
-        <v>0.9977878500000004</v>
+        <v>0.9996792506736835</v>
       </c>
       <c r="E14">
-        <v>1.0026814</v>
+        <v>1.000388788463159</v>
       </c>
       <c r="F14">
-        <v>1.0010055</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="G14">
-        <v>0.9959779000000001</v>
+        <v>0.9994168153578957</v>
       </c>
       <c r="H14">
-        <v>1.0010055</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="I14">
-        <v>0.9959779000000001</v>
+        <v>0.9994168153578957</v>
       </c>
       <c r="J14">
-        <v>1.0010055</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="K14">
-        <v>1.0010055</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="L14">
-        <v>1.0010055</v>
+        <v>1.000145796136842</v>
       </c>
       <c r="M14">
-        <v>0.9984917</v>
+        <v>0.999781305747369</v>
       </c>
       <c r="N14">
-        <v>0.9984917</v>
+        <v>0.999781305747369</v>
       </c>
       <c r="O14">
-        <v>0.9982570833333334</v>
+        <v>0.9997472873894738</v>
       </c>
       <c r="P14">
-        <v>0.9993296333333334</v>
+        <v>0.99990280254386</v>
       </c>
       <c r="Q14">
-        <v>0.9993296333333334</v>
+        <v>0.99990280254386</v>
       </c>
       <c r="R14">
-        <v>0.9997486</v>
+        <v>0.9999635509421057</v>
       </c>
       <c r="S14">
-        <v>0.9997486</v>
+        <v>0.9999635509421057</v>
       </c>
       <c r="T14">
-        <v>0.9999106083333333</v>
+        <v>0.9999870404842109</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0010055</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="D15">
-        <v>0.99778785</v>
+        <v>1.000251822810245</v>
       </c>
       <c r="E15">
-        <v>1.0026814</v>
+        <v>0.9996947622597689</v>
       </c>
       <c r="F15">
-        <v>1.0010055</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="G15">
-        <v>0.9959779000000001</v>
+        <v>1.000457854557282</v>
       </c>
       <c r="H15">
-        <v>1.0010055</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="I15">
-        <v>0.9959779000000001</v>
+        <v>1.000457854557282</v>
       </c>
       <c r="J15">
-        <v>1.0010055</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>0.9998855377571947</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>1.000171696157238</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>1.000171696157238</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>1.000198405041574</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>1.000076310023891</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>1.000076310023891</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>1.000028616957217</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>1.000028616957217</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>1.000010175483147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>1.0010055</v>
+      </c>
+      <c r="D16">
+        <v>0.9977878500000004</v>
+      </c>
+      <c r="E16">
+        <v>1.0026814</v>
+      </c>
+      <c r="F16">
+        <v>1.0010055</v>
+      </c>
+      <c r="G16">
         <v>0.9959779000000001</v>
       </c>
-      <c r="D16">
-        <v>1.0088486</v>
-      </c>
-      <c r="E16">
-        <v>0.98927441</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
+        <v>1.0010055</v>
+      </c>
+      <c r="I16">
         <v>0.9959779000000001</v>
       </c>
-      <c r="G16">
-        <v>1.0160884</v>
-      </c>
-      <c r="H16">
-        <v>0.9959779000000001</v>
-      </c>
-      <c r="I16">
-        <v>1.0160884</v>
-      </c>
       <c r="J16">
-        <v>0.9959779000000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="K16">
-        <v>0.9959779000000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>0.9959779000000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>1.00603315</v>
+        <v>0.9984917</v>
       </c>
       <c r="N16">
-        <v>1.00603315</v>
+        <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>1.006971633333333</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P16">
-        <v>1.0026814</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q16">
-        <v>1.0026814</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R16">
-        <v>1.001005525</v>
+        <v>0.9997486</v>
       </c>
       <c r="S16">
-        <v>1.001005525</v>
+        <v>0.9997486</v>
       </c>
       <c r="T16">
-        <v>1.000357518333333</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="D17">
-        <v>0.9998617400000001</v>
+        <v>0.99778785</v>
       </c>
       <c r="E17">
-        <v>1.0001676</v>
+        <v>1.0026814</v>
       </c>
       <c r="F17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="I17">
-        <v>0.99974862</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="K17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>0.9999057099999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>0.9999057099999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>0.9998910533333333</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>0.9999580733333332</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>0.9999580733333332</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>0.999984255</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>0.999984255</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>0.9999943933333334</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00038567260274</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D18">
-        <v>0.9991515034246576</v>
+        <v>1.0088486</v>
       </c>
       <c r="E18">
-        <v>1.001028487397261</v>
+        <v>0.98927441</v>
       </c>
       <c r="F18">
-        <v>1.00038567260274</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G18">
-        <v>0.9984572704109588</v>
+        <v>1.0160884</v>
       </c>
       <c r="H18">
-        <v>1.00038567260274</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="I18">
-        <v>0.9984572704109588</v>
+        <v>1.0160884</v>
       </c>
       <c r="J18">
-        <v>1.00038567260274</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K18">
-        <v>1.00038567260274</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="L18">
-        <v>1.00038567260274</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M18">
-        <v>0.9994214715068492</v>
+        <v>1.00603315</v>
       </c>
       <c r="N18">
-        <v>0.9994214715068492</v>
+        <v>1.00603315</v>
       </c>
       <c r="O18">
-        <v>0.9993314821461187</v>
+        <v>1.006971633333333</v>
       </c>
       <c r="P18">
-        <v>0.9997428718721461</v>
+        <v>1.0026814</v>
       </c>
       <c r="Q18">
-        <v>0.9997428718721461</v>
+        <v>1.0026814</v>
       </c>
       <c r="R18">
-        <v>0.9999035720547945</v>
+        <v>1.001005525</v>
       </c>
       <c r="S18">
-        <v>0.9999035720547945</v>
+        <v>1.001005525</v>
       </c>
       <c r="T18">
-        <v>0.9999657131735159</v>
+        <v>1.000357518333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000277834210526</v>
+        <v>1.0000628</v>
       </c>
       <c r="D19">
-        <v>0.9993887473684213</v>
+        <v>0.9998617400000001</v>
       </c>
       <c r="E19">
-        <v>1.000740918421053</v>
+        <v>1.0001676</v>
       </c>
       <c r="F19">
-        <v>1.000277834210526</v>
+        <v>1.0000628</v>
       </c>
       <c r="G19">
-        <v>0.9988886242105264</v>
+        <v>0.99974862</v>
       </c>
       <c r="H19">
-        <v>1.000277834210526</v>
+        <v>1.0000628</v>
       </c>
       <c r="I19">
-        <v>0.9988886242105264</v>
+        <v>0.99974862</v>
       </c>
       <c r="J19">
-        <v>1.000277834210526</v>
+        <v>1.0000628</v>
       </c>
       <c r="K19">
-        <v>1.000277834210526</v>
+        <v>1.0000628</v>
       </c>
       <c r="L19">
-        <v>1.000277834210526</v>
+        <v>1.0000628</v>
       </c>
       <c r="M19">
-        <v>0.9995832292105262</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="N19">
-        <v>0.9995832292105262</v>
+        <v>0.9999057099999999</v>
       </c>
       <c r="O19">
-        <v>0.9995184019298247</v>
+        <v>0.9998910533333333</v>
       </c>
       <c r="P19">
-        <v>0.9998147642105262</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="Q19">
-        <v>0.9998147642105262</v>
+        <v>0.9999580733333332</v>
       </c>
       <c r="R19">
-        <v>0.9999305317105261</v>
+        <v>0.999984255</v>
       </c>
       <c r="S19">
-        <v>0.9999305317105261</v>
+        <v>0.999984255</v>
       </c>
       <c r="T19">
-        <v>0.9999752987719298</v>
+        <v>0.9999943933333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9986240136842104</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="D20">
-        <v>1.003027150526316</v>
+        <v>0.9991515034246576</v>
       </c>
       <c r="E20">
-        <v>0.9963307184210525</v>
+        <v>1.001028487397261</v>
       </c>
       <c r="F20">
-        <v>0.9986240136842104</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="G20">
-        <v>1.005503925263158</v>
+        <v>0.9984572704109588</v>
       </c>
       <c r="H20">
-        <v>0.9986240136842104</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="I20">
-        <v>1.005503925263158</v>
+        <v>0.9984572704109588</v>
       </c>
       <c r="J20">
-        <v>0.9986240136842104</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="K20">
-        <v>0.9986240136842104</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="L20">
-        <v>0.9986240136842104</v>
+        <v>1.00038567260274</v>
       </c>
       <c r="M20">
-        <v>1.002063969473684</v>
+        <v>0.9994214715068492</v>
       </c>
       <c r="N20">
-        <v>1.002063969473684</v>
+        <v>0.9994214715068492</v>
       </c>
       <c r="O20">
-        <v>1.002385029824561</v>
+        <v>0.9993314821461187</v>
       </c>
       <c r="P20">
-        <v>1.00091731754386</v>
+        <v>0.9997428718721461</v>
       </c>
       <c r="Q20">
-        <v>1.00091731754386</v>
+        <v>0.9997428718721461</v>
       </c>
       <c r="R20">
-        <v>1.000343991578947</v>
+        <v>0.9999035720547945</v>
       </c>
       <c r="S20">
-        <v>1.000343991578947</v>
+        <v>0.9999035720547945</v>
       </c>
       <c r="T20">
-        <v>1.000122305877193</v>
+        <v>0.9999657131735159</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002089797253162</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="D21">
-        <v>0.9954024506878769</v>
+        <v>0.9993887473684213</v>
       </c>
       <c r="E21">
-        <v>1.005572790015801</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="F21">
-        <v>1.002089797253162</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G21">
-        <v>0.9916408172691078</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="H21">
-        <v>1.002089797253162</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="I21">
-        <v>0.9916408172691078</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="J21">
-        <v>1.002089797253162</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="K21">
-        <v>1.002089797253162</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="L21">
-        <v>1.002089797253162</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="M21">
-        <v>0.9968653072611348</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="N21">
-        <v>0.9968653072611348</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="O21">
-        <v>0.9963776884033821</v>
+        <v>0.9995184019298247</v>
       </c>
       <c r="P21">
-        <v>0.9986068039251438</v>
+        <v>0.9998147642105262</v>
       </c>
       <c r="Q21">
-        <v>0.9986068039251438</v>
+        <v>0.9998147642105262</v>
       </c>
       <c r="R21">
-        <v>0.9994775522571482</v>
+        <v>0.9999305317105261</v>
       </c>
       <c r="S21">
-        <v>0.9994775522571482</v>
+        <v>0.9999305317105261</v>
       </c>
       <c r="T21">
-        <v>0.9998142416220452</v>
+        <v>0.9999752987719298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000561146984666</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="D22">
-        <v>0.9987654929139987</v>
+        <v>1.003027150526316</v>
       </c>
       <c r="E22">
-        <v>1.001496364492529</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="F22">
-        <v>1.000561146984666</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="G22">
-        <v>0.9977554399469895</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="H22">
-        <v>1.000561146984666</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="I22">
-        <v>0.9977554399469895</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="J22">
-        <v>1.000561146984666</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="K22">
-        <v>1.000561146984666</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="L22">
-        <v>1.000561146984666</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="M22">
-        <v>0.9991582934658279</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="N22">
-        <v>0.9991582934658279</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="O22">
-        <v>0.9990273599485514</v>
+        <v>1.002385029824561</v>
       </c>
       <c r="P22">
-        <v>0.9996259113054405</v>
+        <v>1.00091731754386</v>
       </c>
       <c r="Q22">
-        <v>0.9996259113054405</v>
+        <v>1.00091731754386</v>
       </c>
       <c r="R22">
-        <v>0.9998597202252471</v>
+        <v>1.000343991578947</v>
       </c>
       <c r="S22">
-        <v>0.9998597202252471</v>
+        <v>1.000343991578947</v>
       </c>
       <c r="T22">
-        <v>0.9999501230512525</v>
+        <v>1.000122305877193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000028097300705</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="D23">
-        <v>0.999938188232406</v>
+        <v>0.9954024506878769</v>
       </c>
       <c r="E23">
-        <v>1.000074918695383</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="F23">
-        <v>1.000028097300705</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="G23">
-        <v>0.9998876122407555</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="H23">
-        <v>1.000028097300705</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="I23">
-        <v>0.9998876122407555</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="J23">
-        <v>1.000028097300705</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="K23">
-        <v>1.000028097300705</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="L23">
-        <v>1.000028097300705</v>
+        <v>1.002089797253162</v>
       </c>
       <c r="M23">
-        <v>0.9999578547707304</v>
+        <v>0.9968653072611348</v>
       </c>
       <c r="N23">
-        <v>0.9999578547707304</v>
+        <v>0.9968653072611348</v>
       </c>
       <c r="O23">
-        <v>0.9999512992579556</v>
+        <v>0.9963776884033821</v>
       </c>
       <c r="P23">
-        <v>0.9999812689473887</v>
+        <v>0.9986068039251438</v>
       </c>
       <c r="Q23">
-        <v>0.9999812689473887</v>
+        <v>0.9986068039251438</v>
       </c>
       <c r="R23">
-        <v>0.9999929760357178</v>
+        <v>0.9994775522571482</v>
       </c>
       <c r="S23">
-        <v>0.9999929760357178</v>
+        <v>0.9994775522571482</v>
       </c>
       <c r="T23">
-        <v>0.9999975018451099</v>
+        <v>0.9998142416220452</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000007626290974</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="D24">
-        <v>0.9999832304387672</v>
+        <v>0.9987654929139987</v>
       </c>
       <c r="E24">
-        <v>1.000020322947069</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="F24">
-        <v>1.000007626290974</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="G24">
-        <v>0.999969510855254</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="H24">
-        <v>1.000007626290974</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="I24">
-        <v>0.999969510855254</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="J24">
-        <v>1.000007626290974</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="K24">
-        <v>1.000007626290974</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="L24">
-        <v>1.000007626290974</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="M24">
-        <v>0.9999885685731138</v>
+        <v>0.9991582934658279</v>
       </c>
       <c r="N24">
-        <v>0.9999885685731138</v>
+        <v>0.9991582934658279</v>
       </c>
       <c r="O24">
-        <v>0.9999867891949984</v>
+        <v>0.9990273599485514</v>
       </c>
       <c r="P24">
-        <v>0.9999949211457336</v>
+        <v>0.9996259113054405</v>
       </c>
       <c r="Q24">
-        <v>0.9999949211457336</v>
+        <v>0.9996259113054405</v>
       </c>
       <c r="R24">
-        <v>0.9999980974320437</v>
+        <v>0.9998597202252471</v>
       </c>
       <c r="S24">
-        <v>0.9999980974320437</v>
+        <v>0.9998597202252471</v>
       </c>
       <c r="T24">
-        <v>0.999999323852335</v>
+        <v>0.9999501230512525</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9973269266129244</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="D25">
-        <v>1.005880777237486</v>
+        <v>0.999938188232406</v>
       </c>
       <c r="E25">
-        <v>0.9928718018038819</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="F25">
-        <v>0.9973269266129244</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="G25">
-        <v>1.010692306143848</v>
+        <v>0.9998876122407555</v>
       </c>
       <c r="H25">
-        <v>0.9973269266129244</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="I25">
-        <v>1.010692306143848</v>
+        <v>0.9998876122407555</v>
       </c>
       <c r="J25">
-        <v>0.9973269266129244</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="K25">
-        <v>0.9973269266129244</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="L25">
-        <v>0.9973269266129244</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="M25">
-        <v>1.004009616378386</v>
+        <v>0.9999578547707304</v>
       </c>
       <c r="N25">
-        <v>1.004009616378386</v>
+        <v>0.9999578547707304</v>
       </c>
       <c r="O25">
-        <v>1.004633336664753</v>
+        <v>0.9999512992579556</v>
       </c>
       <c r="P25">
-        <v>1.001782053123232</v>
+        <v>0.9999812689473887</v>
       </c>
       <c r="Q25">
-        <v>1.001782053123232</v>
+        <v>0.9999812689473887</v>
       </c>
       <c r="R25">
-        <v>1.000668271495655</v>
+        <v>0.9999929760357178</v>
       </c>
       <c r="S25">
-        <v>1.000668271495655</v>
+        <v>0.9999929760357178</v>
       </c>
       <c r="T25">
-        <v>1.000237610837331</v>
+        <v>0.9999975018451099</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9992875286153806</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="D26">
-        <v>1.001567436407662</v>
+        <v>0.9999832304387672</v>
       </c>
       <c r="E26">
-        <v>0.998100076613526</v>
+        <v>1.000020322947069</v>
       </c>
       <c r="F26">
-        <v>0.9992875286153806</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="G26">
-        <v>1.00284988332352</v>
+        <v>0.999969510855254</v>
       </c>
       <c r="H26">
-        <v>0.9992875286153806</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="I26">
-        <v>1.00284988332352</v>
+        <v>0.999969510855254</v>
       </c>
       <c r="J26">
-        <v>0.9992875286153806</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="K26">
-        <v>0.9992875286153806</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="L26">
-        <v>0.9992875286153806</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="M26">
-        <v>1.001068705969451</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="N26">
-        <v>1.001068705969451</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="O26">
-        <v>1.001234949448854</v>
+        <v>0.9999867891949984</v>
       </c>
       <c r="P26">
-        <v>1.000474980184761</v>
+        <v>0.9999949211457336</v>
       </c>
       <c r="Q26">
-        <v>1.000474980184761</v>
+        <v>0.9999949211457336</v>
       </c>
       <c r="R26">
-        <v>1.000178117292416</v>
+        <v>0.9999980974320437</v>
       </c>
       <c r="S26">
-        <v>1.000178117292416</v>
+        <v>0.9999980974320437</v>
       </c>
       <c r="T26">
-        <v>1.000063330365142</v>
+        <v>0.999999323852335</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000059921129255</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="D27">
-        <v>0.9998681530605863</v>
+        <v>1.005880777237486</v>
       </c>
       <c r="E27">
-        <v>1.000159821500623</v>
+        <v>0.9928718018038819</v>
       </c>
       <c r="F27">
-        <v>1.000059921129255</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="G27">
-        <v>0.9997602857650838</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="H27">
-        <v>1.000059921129255</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="I27">
-        <v>0.9997602857650838</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="J27">
-        <v>1.000059921129255</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="K27">
-        <v>1.000059921129255</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="L27">
-        <v>1.000059921129255</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="M27">
-        <v>0.9999101034471696</v>
+        <v>1.004009616378386</v>
       </c>
       <c r="N27">
-        <v>0.9999101034471696</v>
+        <v>1.004009616378386</v>
       </c>
       <c r="O27">
-        <v>0.9998961199849751</v>
+        <v>1.004633336664753</v>
       </c>
       <c r="P27">
-        <v>0.9999600426745315</v>
+        <v>1.001782053123232</v>
       </c>
       <c r="Q27">
-        <v>0.9999600426745315</v>
+        <v>1.001782053123232</v>
       </c>
       <c r="R27">
-        <v>0.9999850122882125</v>
+        <v>1.000668271495655</v>
       </c>
       <c r="S27">
-        <v>0.9999850122882125</v>
+        <v>1.000668271495655</v>
       </c>
       <c r="T27">
-        <v>0.9999946706190098</v>
+        <v>1.000237610837331</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9998036897305843</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="D28">
-        <v>1.00043188218352</v>
+        <v>1.001567436407662</v>
       </c>
       <c r="E28">
-        <v>0.9994765195477021</v>
+        <v>0.998100076613526</v>
       </c>
       <c r="F28">
-        <v>0.9998036897305843</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="G28">
-        <v>1.000785231709567</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="H28">
-        <v>0.9998036897305843</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="I28">
-        <v>1.000785231709567</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="J28">
-        <v>0.9998036897305843</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="K28">
-        <v>0.9998036897305843</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="L28">
-        <v>0.9998036897305843</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="M28">
-        <v>1.000294460720075</v>
+        <v>1.001068705969451</v>
       </c>
       <c r="N28">
-        <v>1.000294460720075</v>
+        <v>1.001068705969451</v>
       </c>
       <c r="O28">
-        <v>1.000340267874557</v>
+        <v>1.001234949448854</v>
       </c>
       <c r="P28">
-        <v>1.000130870390245</v>
+        <v>1.000474980184761</v>
       </c>
       <c r="Q28">
-        <v>1.000130870390245</v>
+        <v>1.000474980184761</v>
       </c>
       <c r="R28">
-        <v>1.00004907522533</v>
+        <v>1.000178117292416</v>
       </c>
       <c r="S28">
-        <v>1.00004907522533</v>
+        <v>1.000178117292416</v>
       </c>
       <c r="T28">
-        <v>1.000017450438757</v>
+        <v>1.000063330365142</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="D29">
+        <v>0.9998681530605863</v>
+      </c>
+      <c r="E29">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="F29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="G29">
+        <v>0.9997602857650838</v>
+      </c>
+      <c r="H29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="I29">
+        <v>0.9997602857650838</v>
+      </c>
+      <c r="J29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="K29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="L29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="M29">
+        <v>0.9999101034471696</v>
+      </c>
+      <c r="N29">
+        <v>0.9999101034471696</v>
+      </c>
+      <c r="O29">
+        <v>0.9998961199849751</v>
+      </c>
+      <c r="P29">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="R29">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="S29">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="T29">
+        <v>0.9999946706190098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="D30">
+        <v>1.00043188218352</v>
+      </c>
+      <c r="E30">
+        <v>0.9994765195477021</v>
+      </c>
+      <c r="F30">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="G30">
+        <v>1.000785231709567</v>
+      </c>
+      <c r="H30">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="I30">
+        <v>1.000785231709567</v>
+      </c>
+      <c r="J30">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="K30">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="L30">
+        <v>0.9998036897305843</v>
+      </c>
+      <c r="M30">
+        <v>1.000294460720075</v>
+      </c>
+      <c r="N30">
+        <v>1.000294460720075</v>
+      </c>
+      <c r="O30">
+        <v>1.000340267874557</v>
+      </c>
+      <c r="P30">
+        <v>1.000130870390245</v>
+      </c>
+      <c r="Q30">
+        <v>1.000130870390245</v>
+      </c>
+      <c r="R30">
+        <v>1.00004907522533</v>
+      </c>
+      <c r="S30">
+        <v>1.00004907522533</v>
+      </c>
+      <c r="T30">
+        <v>1.000017450438757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.999643680642808</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000783897957676</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9990498341414835</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.999643680642808</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.001425267626205</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.999643680642808</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.001425267626205</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.999643680642808</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.999643680642808</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.999643680642808</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000534474134506</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000534474134506</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000617615408896</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000237542970607</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000237542970607</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000089077388657</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000089077388657</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000031673608965</v>
       </c>
     </row>
